--- a/Group25 DBL Scrum Timesheets.xlsx
+++ b/Group25 DBL Scrum Timesheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/m_topac_student_tue_nl/Documents/Year 1/Q4/2IO75 - DBL Embedded Systems/GitHub Repository/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G\Documents\Documenten TU-Eindhoven\Year 1 - Q4\DBL C++\Github\Embedded_system_group25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{A8FCED76-41E2-4634-BC89-7F786EBC401A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{444985F3-455A-4216-922C-0B44272E3942}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD8A2AE-D374-4B2E-AC62-8A5DE5104E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="221">
   <si>
     <t>Project:</t>
   </si>
@@ -553,9 +553,6 @@
     <t>Daily scrum</t>
   </si>
   <si>
-    <t>Workshop</t>
-  </si>
-  <si>
     <t>svg/urdf robot, searching for way to animate robot and testing for simulation</t>
   </si>
   <si>
@@ -692,6 +689,27 @@
   </si>
   <si>
     <t>Sprint Task 4.2: Melody code assembly and Arduino memory problem</t>
+  </si>
+  <si>
+    <t>Workshop/presentation/prep</t>
+  </si>
+  <si>
+    <t>review with other group</t>
+  </si>
+  <si>
+    <t>rpi output tunes research</t>
+  </si>
+  <si>
+    <t>setup arduino software</t>
+  </si>
+  <si>
+    <t>week 7: extra meeting on Friday, due to no meeting on Monday+ testing code</t>
+  </si>
+  <si>
+    <t>coding for error leds</t>
+  </si>
+  <si>
+    <t>fixing timesheet</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1167,7 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.0909722222222222</c:v>
+                  <c:v>2.3305555555555553</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.95833333333333337</c:v>
@@ -1390,25 +1408,25 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.9937499999999997</c:v>
+                  <c:v>2.021527777777778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4756944444444444</c:v>
+                  <c:v>1.4791666666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4201388888888888</c:v>
+                  <c:v>1.4444444444444442</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4305555555555554</c:v>
+                  <c:v>2.4375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.96875</c:v>
+                  <c:v>2.0104166666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1770833333333333</c:v>
+                  <c:v>1.1875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.70833333333333337</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1429,25 +1447,25 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.9937499999999997</c:v>
+                  <c:v>2.021527777777778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4756944444444444</c:v>
+                  <c:v>1.4791666666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4201388888888888</c:v>
+                  <c:v>1.4444444444444442</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4305555555555554</c:v>
+                  <c:v>2.4375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.96875</c:v>
+                  <c:v>2.0104166666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1770833333333333</c:v>
+                  <c:v>1.1875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.70833333333333337</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1984,10 +2002,10 @@
                   <c:v>0.10416666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.14583333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9791666666666661</c:v>
+                  <c:v>3.0312499999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2017,10 +2035,10 @@
                   <c:v>0.14583333333333334</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.20833333333333334</c:v>
+                  <c:v>0.22916666666666669</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.25</c:v>
@@ -2029,10 +2047,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>5.2083333333333329E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2776,7 +2794,7 @@
         <v>71</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C34" s="33"/>
     </row>
@@ -2785,7 +2803,7 @@
         <v>72</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C35" s="33"/>
     </row>
@@ -2794,7 +2812,7 @@
         <v>73</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C36" s="33"/>
     </row>
@@ -2803,7 +2821,7 @@
         <v>74</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C37" s="33"/>
     </row>
@@ -4308,8 +4326,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4329,6 +4347,9 @@
       <c r="B2" s="1" t="str">
         <f>INDEX(Participants,1,2)</f>
         <v>Serkan Efe Durusu</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4506,13 +4527,19 @@
         <f t="array" ref="B9">INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="43"/>
+      <c r="E9" s="43">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="43"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="43"/>
+      <c r="I9" s="43">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="J9" s="11"/>
       <c r="K9" s="43"/>
       <c r="L9" s="43"/>
@@ -4550,7 +4577,9 @@
       <c r="H10" s="43">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I10" s="11"/>
+      <c r="I10" s="11">
+        <v>5.2083333333333336E-2</v>
+      </c>
       <c r="J10" s="43"/>
       <c r="K10" s="43"/>
       <c r="L10" s="43"/>
@@ -4570,9 +4599,7 @@
         <f t="array" ref="B11">INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
       </c>
-      <c r="C11" s="14">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="C11" s="14"/>
       <c r="D11" s="14">
         <v>0.125</v>
       </c>
@@ -4627,7 +4654,7 @@
     </row>
     <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
@@ -4654,7 +4681,7 @@
     </row>
     <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="10"/>
@@ -4669,7 +4696,7 @@
       <c r="K14" s="43"/>
       <c r="L14" s="43"/>
       <c r="M14" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O14" s="12"/>
       <c r="P14" s="6"/>
@@ -4684,7 +4711,7 @@
     </row>
     <row r="15" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="10"/>
@@ -4711,7 +4738,7 @@
     </row>
     <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="14"/>
@@ -4738,7 +4765,7 @@
     </row>
     <row r="17" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="14"/>
@@ -4765,7 +4792,7 @@
     </row>
     <row r="18" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="14"/>
@@ -4792,7 +4819,7 @@
     </row>
     <row r="19" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="1"/>
@@ -4817,11 +4844,12 @@
       <c r="X19" s="38"/>
     </row>
     <row r="20" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="str">
-        <f t="array" ref="B20">INDEX(Tasks,15,2)</f>
-        <v>Sprint Task 2.3: Internet connectivity</v>
-      </c>
-      <c r="C20" s="11"/>
+      <c r="B20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D20" s="14"/>
       <c r="E20" s="11"/>
       <c r="F20" s="43"/>
@@ -4843,9 +4871,8 @@
       <c r="X20" s="38"/>
     </row>
     <row r="21" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="str">
-        <f t="array" ref="B21">INDEX(Tasks,16,2)</f>
-        <v>Sprint Task 2.4: UML diagrams</v>
+      <c r="B21" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="1"/>
@@ -4853,7 +4880,9 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
+      <c r="I21" s="43">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="J21" s="43"/>
       <c r="K21" s="43"/>
       <c r="L21" s="43"/>
@@ -4869,9 +4898,8 @@
       <c r="X21" s="38"/>
     </row>
     <row r="22" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="str">
-        <f t="array" ref="B22">INDEX(Tasks,17,2)</f>
-        <v>Sprint Task 2.5: Midterm Presentation</v>
+      <c r="B22" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -4895,10 +4923,7 @@
       <c r="X22" s="38"/>
     </row>
     <row r="23" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="str">
-        <f t="array" ref="B23">INDEX(Tasks,18,2)</f>
-        <v>Sprint Task 2.6: Midterm video</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
       <c r="E23" s="43"/>
@@ -4921,15 +4946,16 @@
       <c r="X23" s="38"/>
     </row>
     <row r="24" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="str">
-        <f t="array" ref="B24">INDEX(Tasks,19,2)</f>
-        <v>Sprint Task 3.1 Intermediate peer review</v>
+      <c r="B24" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="43"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="43"/>
+      <c r="G24" s="43">
+        <v>3.125E-2</v>
+      </c>
       <c r="H24" s="43"/>
       <c r="I24" s="43"/>
       <c r="J24" s="43"/>
@@ -4947,17 +4973,30 @@
       <c r="X24" s="38"/>
     </row>
     <row r="25" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="str">
-        <f t="array" ref="B25">INDEX(Tasks,20,2)</f>
-        <v>Sprint Task 3.2 Acceptance Test Plan</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
+      <c r="B25" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D25" s="21">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E25" s="43">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F25" s="43">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="G25" s="43">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H25" s="43">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="I25" s="43">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="J25" s="43"/>
       <c r="K25" s="43"/>
       <c r="L25" s="43"/>
@@ -4976,7 +5015,7 @@
     <row r="26" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" s="14">
         <v>6.9444444444444441E-3</v>
@@ -4996,7 +5035,9 @@
       <c r="H26" s="43">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="I26" s="43"/>
+      <c r="I26" s="43">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="J26" s="43"/>
       <c r="K26" s="43"/>
       <c r="L26" s="43"/>
@@ -5011,7 +5052,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -5039,7 +5080,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -5067,7 +5108,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -7371,35 +7412,35 @@
     </row>
     <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C128" s="45">
         <f t="shared" ref="C128:L128" si="0">SUM(C5:C127)</f>
-        <v>0.32708333333333334</v>
+        <v>0.35486111111111107</v>
       </c>
       <c r="D128" s="45">
         <f t="shared" si="0"/>
-        <v>0.23611111111111113</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="E128" s="45">
         <f t="shared" si="0"/>
-        <v>0.22222222222222224</v>
+        <v>0.24652777777777776</v>
       </c>
       <c r="F128" s="45">
         <f t="shared" si="0"/>
-        <v>0.53472222222222221</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="G128" s="45">
         <f t="shared" si="0"/>
-        <v>0.43749999999999994</v>
+        <v>0.47916666666666663</v>
       </c>
       <c r="H128" s="45">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.34375</v>
       </c>
       <c r="I128" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="J128" s="45">
         <f t="shared" si="0"/>
@@ -7440,47 +7481,47 @@
     </row>
     <row r="130" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C130" s="12">
         <f>SUM(C128)</f>
-        <v>0.32708333333333334</v>
+        <v>0.35486111111111107</v>
       </c>
       <c r="D130" s="38">
         <f>SUM(D128,C128)</f>
-        <v>0.56319444444444444</v>
+        <v>0.59444444444444444</v>
       </c>
       <c r="E130" s="38">
         <f>SUM(E128,C128,D128)</f>
-        <v>0.78541666666666676</v>
+        <v>0.84097222222222223</v>
       </c>
       <c r="F130" s="38">
         <f>SUM(C128:F128)</f>
-        <v>1.3201388888888888</v>
+        <v>1.3826388888888888</v>
       </c>
       <c r="G130" s="38">
         <f>SUM(C128:G128)</f>
-        <v>1.7576388888888888</v>
+        <v>1.8618055555555553</v>
       </c>
       <c r="H130" s="38">
         <f>SUM(C128:H128)</f>
-        <v>2.0909722222222222</v>
+        <v>2.2055555555555553</v>
       </c>
       <c r="I130" s="38">
         <f>SUM(C128:I128)</f>
-        <v>2.0909722222222222</v>
+        <v>2.3305555555555553</v>
       </c>
       <c r="J130" s="38">
         <f>SUM(C128:J128)</f>
-        <v>2.0909722222222222</v>
+        <v>2.3305555555555553</v>
       </c>
       <c r="K130" s="38">
         <f>SUM(C128:K128)</f>
-        <v>2.0909722222222222</v>
+        <v>2.3305555555555553</v>
       </c>
       <c r="L130" s="38">
         <f>SUM(C128:L128)</f>
-        <v>2.0909722222222222</v>
+        <v>2.3305555555555553</v>
       </c>
       <c r="M130" s="46"/>
       <c r="O130" s="38"/>
@@ -7496,47 +7537,47 @@
     </row>
     <row r="131" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C131" s="38">
         <f>Parameters!$G$9-C130</f>
-        <v>5.5062499999999996</v>
+        <v>5.478472222222222</v>
       </c>
       <c r="D131" s="38">
         <f>Parameters!$G$9-D130</f>
-        <v>5.2701388888888889</v>
+        <v>5.2388888888888889</v>
       </c>
       <c r="E131" s="38">
         <f>Parameters!$G$9-E130</f>
-        <v>5.0479166666666666</v>
+        <v>4.9923611111111104</v>
       </c>
       <c r="F131" s="38">
         <f>Parameters!$G$9-F130</f>
-        <v>4.5131944444444443</v>
+        <v>4.4506944444444443</v>
       </c>
       <c r="G131" s="38">
         <f>Parameters!$G$9-G130</f>
-        <v>4.0756944444444443</v>
+        <v>3.9715277777777778</v>
       </c>
       <c r="H131" s="38">
         <f>Parameters!$G$9-H130</f>
-        <v>3.7423611111111108</v>
+        <v>3.6277777777777778</v>
       </c>
       <c r="I131" s="38">
         <f>Parameters!$G$9-I130</f>
-        <v>3.7423611111111108</v>
+        <v>3.5027777777777778</v>
       </c>
       <c r="J131" s="38">
         <f>Parameters!$G$9-J130</f>
-        <v>3.7423611111111108</v>
+        <v>3.5027777777777778</v>
       </c>
       <c r="K131" s="38">
         <f>Parameters!$G$9-K130</f>
-        <v>3.7423611111111108</v>
+        <v>3.5027777777777778</v>
       </c>
       <c r="L131" s="38">
         <f>Parameters!$G$9-L130</f>
-        <v>3.7423611111111108</v>
+        <v>3.5027777777777778</v>
       </c>
       <c r="O131" s="38"/>
       <c r="P131" s="38"/>
@@ -8438,7 +8479,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -9139,7 +9180,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -9167,7 +9208,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -9195,7 +9236,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -9289,7 +9330,7 @@
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="18" t="str">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>Sprint Task 4.5: requesting parts</v>
@@ -9317,7 +9358,7 @@
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="18" t="str">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>Belt inspection:</v>
@@ -9345,7 +9386,7 @@
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="18" t="str">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>sprint Task 4.6: Fixing the robot manipulator 3D mesh</v>
@@ -9373,7 +9414,7 @@
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="18" t="str">
         <f>INDEX(Tasks,30,2)</f>
         <v>Sprint Task: testing servo</v>
@@ -11417,7 +11458,7 @@
       <c r="W122" s="38"/>
       <c r="X122" s="38"/>
     </row>
-    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B123" s="18"/>
       <c r="C123" s="44"/>
       <c r="D123" s="44"/>
@@ -11440,7 +11481,7 @@
       <c r="W123" s="38"/>
       <c r="X123" s="38"/>
     </row>
-    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B124" s="18"/>
       <c r="C124" s="44"/>
       <c r="D124" s="44"/>
@@ -11463,7 +11504,7 @@
       <c r="W124" s="38"/>
       <c r="X124" s="38"/>
     </row>
-    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B125" s="18"/>
       <c r="C125" s="44"/>
       <c r="D125" s="44"/>
@@ -11486,7 +11527,7 @@
       <c r="W125" s="38"/>
       <c r="X125" s="38"/>
     </row>
-    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B126" s="18"/>
       <c r="C126" s="44"/>
       <c r="D126" s="44"/>
@@ -11509,7 +11550,7 @@
       <c r="W126" s="38"/>
       <c r="X126" s="38"/>
     </row>
-    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B127" s="18"/>
       <c r="C127" s="44"/>
       <c r="D127" s="44"/>
@@ -11532,9 +11573,9 @@
       <c r="W127" s="38"/>
       <c r="X127" s="38"/>
     </row>
-    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C128" s="45">
         <f t="shared" ref="C128:L128" si="0">SUM(C5:C127)</f>
@@ -11587,7 +11628,7 @@
       <c r="W128" s="38"/>
       <c r="X128" s="38"/>
     </row>
-    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B129" s="18"/>
       <c r="M129" s="46"/>
       <c r="O129" s="38"/>
@@ -11603,7 +11644,7 @@
     </row>
     <row r="130" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C130" s="12">
         <f>SUM(C128)</f>
@@ -11659,7 +11700,7 @@
     </row>
     <row r="131" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C131" s="38">
         <f>Parameters!$G$9-C130</f>
@@ -12617,7 +12658,7 @@
     <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="1" t="str">
         <f t="array" ref="B2">INDEX(Participants,3,2)</f>
@@ -13284,7 +13325,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -13312,7 +13353,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -13340,7 +13381,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -15650,7 +15691,7 @@
     </row>
     <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C128" s="45">
         <f t="shared" ref="C128:L128" si="0">SUM(C5:C127)</f>
@@ -15719,7 +15760,7 @@
     </row>
     <row r="130" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C130" s="12">
         <f>SUM(C128)</f>
@@ -15775,7 +15816,7 @@
     </row>
     <row r="131" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C131" s="38">
         <f>Parameters!$G$9-C130</f>
@@ -17389,7 +17430,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -17417,7 +17458,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -17445,7 +17486,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -17527,7 +17568,7 @@
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="18" t="str">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>Sprint Task 4.5: requesting parts</v>
@@ -17553,7 +17594,7 @@
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="18" t="str">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>Belt inspection:</v>
@@ -17579,7 +17620,7 @@
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="18" t="str">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>sprint Task 4.6: Fixing the robot manipulator 3D mesh</v>
@@ -17605,7 +17646,7 @@
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="18" t="str">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>Sprint Task: testing servo</v>
@@ -19749,7 +19790,7 @@
     </row>
     <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C128" s="45">
         <f t="shared" ref="C128:L128" si="0">SUM(C5:C127)</f>
@@ -19818,7 +19859,7 @@
     </row>
     <row r="130" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C130" s="12">
         <f>SUM(C128)</f>
@@ -19874,7 +19915,7 @@
     </row>
     <row r="131" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C131" s="38">
         <f>Parameters!$G$9-C130</f>
@@ -20816,8 +20857,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20954,7 +20995,7 @@
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="11">
         <v>4.1666666666666664E-2</v>
@@ -20981,7 +21022,7 @@
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C8" s="14">
         <v>2.0833333333333332E-2</v>
@@ -21008,7 +21049,7 @@
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C9" s="14">
         <v>4.1666666666666664E-2</v>
@@ -21035,7 +21076,7 @@
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" s="14">
         <v>8.3333333333333329E-2</v>
@@ -21062,7 +21103,7 @@
     </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D11" s="14">
         <v>0.10416666666666667</v>
@@ -21092,7 +21133,7 @@
     </row>
     <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D12" s="11">
         <v>0.125</v>
@@ -21118,7 +21159,7 @@
     </row>
     <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
@@ -21145,7 +21186,7 @@
     </row>
     <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -21172,7 +21213,7 @@
     </row>
     <row r="15" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="10"/>
@@ -21199,7 +21240,7 @@
     </row>
     <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="14"/>
@@ -21226,7 +21267,7 @@
     </row>
     <row r="17" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -21255,7 +21296,7 @@
     </row>
     <row r="18" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="14"/>
@@ -21282,7 +21323,7 @@
     </row>
     <row r="19" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="1"/>
@@ -21308,7 +21349,7 @@
     </row>
     <row r="20" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="14"/>
@@ -21335,7 +21376,7 @@
     </row>
     <row r="21" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="1"/>
@@ -21477,7 +21518,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="18"/>
       <c r="C27" s="10"/>
@@ -21502,7 +21543,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -21527,7 +21568,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
@@ -23825,7 +23866,7 @@
     </row>
     <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C128" s="45">
         <f t="shared" ref="C128:L128" si="0">SUM(C5:C127)</f>
@@ -23894,7 +23935,7 @@
     </row>
     <row r="130" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C130" s="12">
         <f>SUM(C128)</f>
@@ -23950,7 +23991,7 @@
     </row>
     <row r="131" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C131" s="38">
         <f>Parameters!$G$9-C130</f>
@@ -25557,7 +25598,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -25585,7 +25626,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -25613,7 +25654,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -27917,7 +27958,7 @@
     </row>
     <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C128" s="45">
         <f t="shared" ref="C128:L128" si="0">SUM(C5:C127)</f>
@@ -27986,7 +28027,7 @@
     </row>
     <row r="130" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C130" s="12">
         <f>SUM(C128)</f>
@@ -28042,7 +28083,7 @@
     </row>
     <row r="131" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C131" s="38">
         <f>Parameters!$G$9-C130</f>
@@ -28999,47 +29040,47 @@
     <row r="1" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="E5" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="F5" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="G5" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="H5" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="I5" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="J5" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="K5" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="L5" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="M5" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="N5" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -29211,7 +29252,7 @@
       </c>
       <c r="C9" s="47">
         <f>SUM('Serkan Efe Durusu'!C9,'Ismail Elmasry'!C9,'can Işmar'!C9,'Marios Papalouka'!C9,'Metehan Topaç'!C9,'Celine Zanders '!C9)</f>
-        <v>6.25E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D9" s="47">
         <f>SUM('Serkan Efe Durusu'!D9,'Ismail Elmasry'!D9,'can Işmar'!D9,'Marios Papalouka'!D9,'Metehan Topaç'!D9,'Celine Zanders '!D9)</f>
@@ -29219,7 +29260,7 @@
       </c>
       <c r="E9" s="47">
         <f>SUM('Serkan Efe Durusu'!E9,'Ismail Elmasry'!E9,'can Işmar'!E9,'Marios Papalouka'!E9,'Metehan Topaç'!E9,'Celine Zanders '!E9)</f>
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="F9" s="47">
         <f>SUM('Serkan Efe Durusu'!F9,'Ismail Elmasry'!F9,'can Işmar'!F9,'Marios Papalouka'!F9,'Metehan Topaç'!F9,'Celine Zanders '!F9)</f>
@@ -29235,7 +29276,7 @@
       </c>
       <c r="I9" s="47">
         <f>SUM('Serkan Efe Durusu'!I9,'Ismail Elmasry'!I9,'can Işmar'!I9,'Marios Papalouka'!I9,'Metehan Topaç'!I9,'Celine Zanders '!I9)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="J9" s="47">
         <f>SUM('Serkan Efe Durusu'!J9,'Ismail Elmasry'!J9,'can Işmar'!J9,'Marios Papalouka'!J9,'Metehan Topaç'!J9,'Celine Zanders '!J9)</f>
@@ -29251,7 +29292,7 @@
       </c>
       <c r="M9" s="50">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="N9" s="49" t="str">
         <f t="array" ref="N9">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M9/INDEX(Tasks,2,3),"")</f>
@@ -29289,7 +29330,7 @@
       </c>
       <c r="I10" s="47">
         <f>SUM('Serkan Efe Durusu'!I10,'Ismail Elmasry'!I10,'can Işmar'!I10,'Marios Papalouka'!I10,'Metehan Topaç'!I10,'Celine Zanders '!I10)</f>
-        <v>0</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="J10" s="47">
         <f>SUM('Serkan Efe Durusu'!J10,'Ismail Elmasry'!J10,'can Işmar'!J10,'Marios Papalouka'!J10,'Metehan Topaç'!J10,'Celine Zanders '!J10)</f>
@@ -29305,7 +29346,7 @@
       </c>
       <c r="M10" s="50">
         <f t="shared" si="0"/>
-        <v>2.9791666666666661</v>
+        <v>3.0312499999999996</v>
       </c>
       <c r="N10" s="49" t="str">
         <f t="array" ref="N10">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M10/INDEX(Tasks,1,3),"")</f>
@@ -29319,7 +29360,7 @@
       </c>
       <c r="C11" s="47">
         <f>SUM('Serkan Efe Durusu'!C11,'Ismail Elmasry'!C11,'can Işmar'!C11,'Marios Papalouka'!C11,'Metehan Topaç'!D11,'Celine Zanders '!C11)</f>
-        <v>0.41666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D11" s="47" t="e">
         <f>SUM('Serkan Efe Durusu'!D11,'Ismail Elmasry'!D11,'can Işmar'!D11,'Marios Papalouka'!D11,'Metehan Topaç'!#REF!,'Celine Zanders '!D11)</f>
@@ -29530,7 +29571,7 @@
     </row>
     <row r="15" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" s="47">
         <f>SUM('Serkan Efe Durusu'!C15,'Ismail Elmasry'!C15,'can Işmar'!C15,'Marios Papalouka'!C15,'Metehan Topaç'!C15,'Celine Zanders '!C15)</f>
@@ -29804,7 +29845,7 @@
       </c>
       <c r="C20" s="47">
         <f>SUM('Serkan Efe Durusu'!C20,'Ismail Elmasry'!C20,'can Işmar'!C20,'Marios Papalouka'!C20,'Metehan Topaç'!C20,'Celine Zanders '!C20)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D20" s="47">
         <f>SUM('Serkan Efe Durusu'!D20,'Ismail Elmasry'!D20,'can Işmar'!D20,'Marios Papalouka'!D20,'Metehan Topaç'!D20,'Celine Zanders '!D20)</f>
@@ -29844,7 +29885,7 @@
       </c>
       <c r="M20" s="50">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="N20" s="49" t="str">
         <f t="array" ref="N20">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M20/INDEX(Tasks,1,3),"")</f>
@@ -29882,7 +29923,7 @@
       </c>
       <c r="I21" s="47">
         <f>SUM('Serkan Efe Durusu'!I21,'Ismail Elmasry'!I21,'can Işmar'!I21,'Marios Papalouka'!I21,'Metehan Topaç'!I21,'Celine Zanders '!I21)</f>
-        <v>0.20833333333333334</v>
+        <v>0.22916666666666669</v>
       </c>
       <c r="J21" s="47">
         <f>SUM('Serkan Efe Durusu'!J21,'Ismail Elmasry'!J21,'can Işmar'!J21,'Marios Papalouka'!J21,'Metehan Topaç'!J21,'Celine Zanders '!J21)</f>
@@ -29898,7 +29939,7 @@
       </c>
       <c r="M21" s="50">
         <f t="shared" si="0"/>
-        <v>0.20833333333333334</v>
+        <v>0.22916666666666669</v>
       </c>
       <c r="N21" s="49" t="str">
         <f t="array" ref="N21">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M21/INDEX(Tasks,2,3),"")</f>
@@ -30036,7 +30077,7 @@
       </c>
       <c r="G24" s="47">
         <f>SUM('Serkan Efe Durusu'!G24,'Ismail Elmasry'!G24,'can Işmar'!G24,'Marios Papalouka'!G24,'Metehan Topaç'!G24,'Celine Zanders '!G24)</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H24" s="47">
         <f>SUM('Serkan Efe Durusu'!H24,'Ismail Elmasry'!H24,'can Işmar'!H24,'Marios Papalouka'!H24,'Metehan Topaç'!H24,'Celine Zanders '!H24)</f>
@@ -30060,7 +30101,7 @@
       </c>
       <c r="M24" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="N24" s="49" t="str">
         <f t="array" ref="N24">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M24/INDEX(Tasks,1,3),"")</f>
@@ -30074,31 +30115,31 @@
       </c>
       <c r="C25" s="47">
         <f>SUM('Serkan Efe Durusu'!C25,'Ismail Elmasry'!C25,'can Işmar'!C25,'Marios Papalouka'!C25,'Metehan Topaç'!C25,'Celine Zanders '!C25)</f>
-        <v>0</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="D25" s="47">
         <f>SUM('Serkan Efe Durusu'!D25,'Ismail Elmasry'!D25,'can Işmar'!D25,'Marios Papalouka'!D25,'Metehan Topaç'!D25,'Celine Zanders '!D25)</f>
-        <v>0</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="E25" s="47">
         <f>SUM('Serkan Efe Durusu'!E25,'Ismail Elmasry'!E25,'can Işmar'!E25,'Marios Papalouka'!E25,'Metehan Topaç'!E25,'Celine Zanders '!E25)</f>
-        <v>0</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="F25" s="47">
         <f>SUM('Serkan Efe Durusu'!F25,'Ismail Elmasry'!F25,'can Işmar'!F25,'Marios Papalouka'!F25,'Metehan Topaç'!F25,'Celine Zanders '!F25)</f>
-        <v>0</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="G25" s="47">
         <f>SUM('Serkan Efe Durusu'!G25,'Ismail Elmasry'!G25,'can Işmar'!G25,'Marios Papalouka'!G25,'Metehan Topaç'!G25,'Celine Zanders '!G25)</f>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="H25" s="47">
         <f>SUM('Serkan Efe Durusu'!H25,'Ismail Elmasry'!H25,'can Işmar'!H25,'Marios Papalouka'!H25,'Metehan Topaç'!H25,'Celine Zanders '!H25)</f>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="I25" s="47">
         <f>SUM('Serkan Efe Durusu'!I25,'Ismail Elmasry'!I25,'can Işmar'!I25,'Marios Papalouka'!I25,'Metehan Topaç'!I25,'Celine Zanders '!I25)</f>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="J25" s="47">
         <f>SUM('Serkan Efe Durusu'!J25,'Ismail Elmasry'!J25,'can Işmar'!J25,'Marios Papalouka'!J25,'Metehan Topaç'!J25,'Celine Zanders '!J25)</f>
@@ -30114,7 +30155,7 @@
       </c>
       <c r="M25" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2083333333333329E-2</v>
       </c>
       <c r="N25" s="49" t="str">
         <f t="array" ref="N25">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M25/INDEX(Tasks,2,3),"")</f>
@@ -30152,7 +30193,7 @@
       </c>
       <c r="I26" s="47">
         <f>SUM('Serkan Efe Durusu'!I26,'Ismail Elmasry'!I26,'can Işmar'!I26,'Marios Papalouka'!I26,'Metehan Topaç'!I26,'Celine Zanders '!I26)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="J26" s="47">
         <f>SUM('Serkan Efe Durusu'!J26,'Ismail Elmasry'!J26,'can Işmar'!J26,'Marios Papalouka'!J26,'Metehan Topaç'!J26,'Celine Zanders '!J26)</f>
@@ -30168,7 +30209,7 @@
       </c>
       <c r="M26" s="50">
         <f t="shared" si="0"/>
-        <v>5.5555555555555566E-2</v>
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="N26" s="49" t="str">
         <f t="array" ref="N26">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M26/INDEX(Tasks,1,3),"")</f>
@@ -35369,42 +35410,42 @@
     <row r="130" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B133" s="25"/>
     </row>
     <row r="134" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C134" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="D134" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="D134" s="52" t="s">
+      <c r="E134" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="E134" s="52" t="s">
+      <c r="F134" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="F134" s="52" t="s">
+      <c r="G134" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="G134" s="52" t="s">
+      <c r="H134" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="H134" s="52" t="s">
+      <c r="I134" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="I134" s="52" t="s">
+      <c r="J134" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="J134" s="52" t="s">
+      <c r="K134" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="K134" s="52" t="s">
+      <c r="L134" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="L134" s="52" t="s">
+      <c r="M134" s="23" t="s">
         <v>203</v>
-      </c>
-      <c r="M134" s="23" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="135" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35414,31 +35455,31 @@
       </c>
       <c r="C135" s="43">
         <f>'Serkan Efe Durusu'!C128</f>
-        <v>0.32708333333333334</v>
+        <v>0.35486111111111107</v>
       </c>
       <c r="D135" s="43">
         <f>'Serkan Efe Durusu'!D128</f>
-        <v>0.23611111111111113</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="E135" s="43">
         <f>'Serkan Efe Durusu'!E128</f>
-        <v>0.22222222222222224</v>
+        <v>0.24652777777777776</v>
       </c>
       <c r="F135" s="43">
         <f>'Serkan Efe Durusu'!F128</f>
-        <v>0.53472222222222221</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="G135" s="43">
         <f>'Serkan Efe Durusu'!G128</f>
-        <v>0.43749999999999994</v>
+        <v>0.47916666666666663</v>
       </c>
       <c r="H135" s="43">
         <f>'Serkan Efe Durusu'!H128</f>
-        <v>0.33333333333333331</v>
+        <v>0.34375</v>
       </c>
       <c r="I135" s="43">
         <f>'Serkan Efe Durusu'!I128</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="J135" s="43">
         <f>'Serkan Efe Durusu'!J128</f>
@@ -35454,7 +35495,7 @@
       </c>
       <c r="M135" s="53">
         <f t="shared" ref="M135:M143" si="1">SUM(C135:L135)</f>
-        <v>2.0909722222222222</v>
+        <v>2.3305555555555553</v>
       </c>
     </row>
     <row r="136" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35713,34 +35754,34 @@
         <v>0</v>
       </c>
       <c r="C141" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D141" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F141" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G141" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H141" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I141" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J141" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K141" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L141" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M141" s="53">
         <f t="shared" si="1"/>
@@ -35753,34 +35794,34 @@
         <v>0</v>
       </c>
       <c r="C142" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D142" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F142" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G142" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H142" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I142" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J142" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K142" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L142" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M142" s="53">
         <f t="shared" si="1"/>
@@ -35790,31 +35831,31 @@
     <row r="143" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="53">
         <f t="shared" ref="C143:L143" si="2">SUM(C135:C142)</f>
-        <v>1.9937499999999997</v>
+        <v>2.021527777777778</v>
       </c>
       <c r="D143" s="53">
         <f t="shared" si="2"/>
-        <v>1.4756944444444444</v>
+        <v>1.4791666666666665</v>
       </c>
       <c r="E143" s="53">
         <f t="shared" si="2"/>
-        <v>1.4201388888888888</v>
+        <v>1.4444444444444442</v>
       </c>
       <c r="F143" s="53">
         <f t="shared" si="2"/>
-        <v>2.4305555555555554</v>
+        <v>2.4375</v>
       </c>
       <c r="G143" s="53">
         <f t="shared" si="2"/>
-        <v>1.96875</v>
+        <v>2.0104166666666665</v>
       </c>
       <c r="H143" s="53">
         <f t="shared" si="2"/>
-        <v>1.1770833333333333</v>
+        <v>1.1875</v>
       </c>
       <c r="I143" s="53">
         <f t="shared" si="2"/>
-        <v>0.58333333333333337</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="J143" s="53">
         <f t="shared" si="2"/>
@@ -35830,7 +35871,7 @@
       </c>
       <c r="M143" s="53">
         <f t="shared" si="1"/>
-        <v>11.049305555555556</v>
+        <v>11.28888888888889</v>
       </c>
     </row>
     <row r="144" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Group25 DBL Scrum Timesheets.xlsx
+++ b/Group25 DBL Scrum Timesheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G\Documents\Documenten TU-Eindhoven\Year 1 - Q4\DBL C++\Github\Embedded_system_group25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD8A2AE-D374-4B2E-AC62-8A5DE5104E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399B3BDA-F0F6-4AB0-A6B9-2FE297042B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="222">
   <si>
     <t>Project:</t>
   </si>
@@ -711,6 +711,9 @@
   <si>
     <t>fixing timesheet</t>
   </si>
+  <si>
+    <t>coding error handling</t>
+  </si>
 </sst>
 </file>
 
@@ -1167,7 +1170,7 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.3305555555555553</c:v>
+                  <c:v>2.3930555555555553</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.95833333333333337</c:v>
@@ -1426,7 +1429,7 @@
                   <c:v>1.1875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70833333333333337</c:v>
+                  <c:v>0.77083333333333337</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1465,7 +1468,7 @@
                   <c:v>1.1875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70833333333333337</c:v>
+                  <c:v>0.77083333333333337</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2041,10 +2044,10 @@
                   <c:v>0.22916666666666669</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.25</c:v>
+                  <c:v>0.27083333333333331</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3.125E-2</c:v>
@@ -4327,7 +4330,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4907,7 +4910,9 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
+      <c r="I22" s="43">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="J22" s="43"/>
       <c r="K22" s="43"/>
       <c r="L22" s="43"/>
@@ -4923,14 +4928,18 @@
       <c r="X22" s="38"/>
     </row>
     <row r="23" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
       <c r="E23" s="43"/>
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
+      <c r="I23" s="43">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="J23" s="43"/>
       <c r="K23" s="43"/>
       <c r="L23" s="43"/>
@@ -7440,7 +7449,7 @@
       </c>
       <c r="I128" s="45">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="J128" s="45">
         <f t="shared" si="0"/>
@@ -7509,19 +7518,19 @@
       </c>
       <c r="I130" s="38">
         <f>SUM(C128:I128)</f>
-        <v>2.3305555555555553</v>
+        <v>2.3930555555555553</v>
       </c>
       <c r="J130" s="38">
         <f>SUM(C128:J128)</f>
-        <v>2.3305555555555553</v>
+        <v>2.3930555555555553</v>
       </c>
       <c r="K130" s="38">
         <f>SUM(C128:K128)</f>
-        <v>2.3305555555555553</v>
+        <v>2.3930555555555553</v>
       </c>
       <c r="L130" s="38">
         <f>SUM(C128:L128)</f>
-        <v>2.3305555555555553</v>
+        <v>2.3930555555555553</v>
       </c>
       <c r="M130" s="46"/>
       <c r="O130" s="38"/>
@@ -7565,19 +7574,19 @@
       </c>
       <c r="I131" s="38">
         <f>Parameters!$G$9-I130</f>
-        <v>3.5027777777777778</v>
+        <v>3.4402777777777778</v>
       </c>
       <c r="J131" s="38">
         <f>Parameters!$G$9-J130</f>
-        <v>3.5027777777777778</v>
+        <v>3.4402777777777778</v>
       </c>
       <c r="K131" s="38">
         <f>Parameters!$G$9-K130</f>
-        <v>3.5027777777777778</v>
+        <v>3.4402777777777778</v>
       </c>
       <c r="L131" s="38">
         <f>Parameters!$G$9-L130</f>
-        <v>3.5027777777777778</v>
+        <v>3.4402777777777778</v>
       </c>
       <c r="O131" s="38"/>
       <c r="P131" s="38"/>
@@ -29977,7 +29986,7 @@
       </c>
       <c r="I22" s="47">
         <f>SUM('Serkan Efe Durusu'!I22,'Ismail Elmasry'!I22,'can Işmar'!I22,'Marios Papalouka'!I22,'Metehan Topaç'!I22,'Celine Zanders '!I22)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="J22" s="47">
         <f>SUM('Serkan Efe Durusu'!J22,'Ismail Elmasry'!J22,'can Işmar'!J22,'Marios Papalouka'!J22,'Metehan Topaç'!J22,'Celine Zanders '!J22)</f>
@@ -29993,7 +30002,7 @@
       </c>
       <c r="M22" s="50">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="N22" s="49" t="str">
         <f t="array" ref="N22">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M22/INDEX(Tasks,1,3),"")</f>
@@ -30031,7 +30040,7 @@
       </c>
       <c r="I23" s="47">
         <f>SUM('Serkan Efe Durusu'!I23,'Ismail Elmasry'!I23,'can Işmar'!I23,'Marios Papalouka'!I23,'Metehan Topaç'!I23,'Celine Zanders '!I23)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J23" s="47">
         <f>SUM('Serkan Efe Durusu'!J23,'Ismail Elmasry'!J23,'can Işmar'!J23,'Marios Papalouka'!J23,'Metehan Topaç'!J23,'Celine Zanders '!J23)</f>
@@ -30047,7 +30056,7 @@
       </c>
       <c r="M23" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="N23" s="49" t="str">
         <f t="array" ref="N23">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M23/INDEX(Tasks,2,3),"")</f>
@@ -35479,7 +35488,7 @@
       </c>
       <c r="I135" s="43">
         <f>'Serkan Efe Durusu'!I128</f>
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="J135" s="43">
         <f>'Serkan Efe Durusu'!J128</f>
@@ -35495,7 +35504,7 @@
       </c>
       <c r="M135" s="53">
         <f t="shared" ref="M135:M143" si="1">SUM(C135:L135)</f>
-        <v>2.3305555555555553</v>
+        <v>2.3930555555555553</v>
       </c>
     </row>
     <row r="136" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35855,7 +35864,7 @@
       </c>
       <c r="I143" s="53">
         <f t="shared" si="2"/>
-        <v>0.70833333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="J143" s="53">
         <f t="shared" si="2"/>
@@ -35871,7 +35880,7 @@
       </c>
       <c r="M143" s="53">
         <f t="shared" si="1"/>
-        <v>11.28888888888889</v>
+        <v>11.35138888888889</v>
       </c>
     </row>
     <row r="144" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Group25 DBL Scrum Timesheets.xlsx
+++ b/Group25 DBL Scrum Timesheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G\Documents\Documenten TU-Eindhoven\Year 1 - Q4\DBL C++\Github\Embedded_system_group25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399B3BDA-F0F6-4AB0-A6B9-2FE297042B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A6E958-F669-451F-8F58-4F770F7C5D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="226">
   <si>
     <t>Project:</t>
   </si>
@@ -714,6 +714,18 @@
   <si>
     <t>coding error handling</t>
   </si>
+  <si>
+    <t>Extra group meeting 10-06 to test and finetune code on robot parts</t>
+  </si>
+  <si>
+    <t>putting code together</t>
+  </si>
+  <si>
+    <t>building robot parts</t>
+  </si>
+  <si>
+    <t>Remark: some weeks gave problems uploading hence higher hours in some weeks</t>
+  </si>
 </sst>
 </file>
 
@@ -723,7 +735,7 @@
     <numFmt numFmtId="164" formatCode="[h]:mm"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -765,6 +777,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -978,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1050,6 +1069,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1170,7 +1190,7 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.3930555555555553</c:v>
+                  <c:v>2.6916666666666664</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.95833333333333337</c:v>
@@ -1429,7 +1449,7 @@
                   <c:v>1.1875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.77083333333333337</c:v>
+                  <c:v>1.0694444444444444</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1468,7 +1488,7 @@
                   <c:v>1.1875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.77083333333333337</c:v>
+                  <c:v>1.0694444444444444</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1999,7 +2019,7 @@
                   <c:v>1.0770833333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26041666666666663</c:v>
+                  <c:v>0.26736111111111105</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.10416666666666666</c:v>
@@ -4329,8 +4349,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4485,7 +4505,9 @@
       <c r="H7" s="11">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="I7" s="11"/>
+      <c r="I7" s="11">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -5050,6 +5072,9 @@
       <c r="J26" s="43"/>
       <c r="K26" s="43"/>
       <c r="L26" s="43"/>
+      <c r="M26" s="54" t="s">
+        <v>225</v>
+      </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="38"/>
@@ -5061,11 +5086,10 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="18" t="str">
-        <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
-        <v>Sprint Task 4.1 App implementation</v>
+      <c r="B27" s="55" t="s">
+        <v>222</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -5073,7 +5097,9 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
+      <c r="I27" s="43">
+        <v>0.22916666666666666</v>
+      </c>
       <c r="J27" s="43"/>
       <c r="K27" s="43"/>
       <c r="L27" s="43"/>
@@ -5089,11 +5115,10 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="18" t="str">
-        <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
-        <v>Sprint Task 4.2 Final Presentation</v>
+      <c r="B28" s="55" t="s">
+        <v>223</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -5101,7 +5126,9 @@
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
+      <c r="I28" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="J28" s="20"/>
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
@@ -5117,11 +5144,10 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="18" t="str">
-        <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
-        <v>Sprint Task 4.3 Acceptance Test</v>
+      <c r="B29" s="55" t="s">
+        <v>224</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -5129,7 +5155,9 @@
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
+      <c r="I29" s="20">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
@@ -5199,8 +5227,8 @@
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="18" t="str">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="55" t="str">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>Sprint Task 4.5: requesting parts</v>
       </c>
@@ -5225,8 +5253,8 @@
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="18" t="str">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="55" t="str">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>Belt inspection:</v>
       </c>
@@ -5251,8 +5279,8 @@
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="18" t="str">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="55" t="str">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>sprint Task 4.6: Fixing the robot manipulator 3D mesh</v>
       </c>
@@ -5277,8 +5305,8 @@
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="18" t="str">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="55" t="str">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>Sprint Task: testing servo</v>
       </c>
@@ -7449,7 +7477,7 @@
       </c>
       <c r="I128" s="45">
         <f t="shared" si="0"/>
-        <v>0.1875</v>
+        <v>0.48611111111111105</v>
       </c>
       <c r="J128" s="45">
         <f t="shared" si="0"/>
@@ -7518,19 +7546,19 @@
       </c>
       <c r="I130" s="38">
         <f>SUM(C128:I128)</f>
-        <v>2.3930555555555553</v>
+        <v>2.6916666666666664</v>
       </c>
       <c r="J130" s="38">
         <f>SUM(C128:J128)</f>
-        <v>2.3930555555555553</v>
+        <v>2.6916666666666664</v>
       </c>
       <c r="K130" s="38">
         <f>SUM(C128:K128)</f>
-        <v>2.3930555555555553</v>
+        <v>2.6916666666666664</v>
       </c>
       <c r="L130" s="38">
         <f>SUM(C128:L128)</f>
-        <v>2.3930555555555553</v>
+        <v>2.6916666666666664</v>
       </c>
       <c r="M130" s="46"/>
       <c r="O130" s="38"/>
@@ -7574,19 +7602,19 @@
       </c>
       <c r="I131" s="38">
         <f>Parameters!$G$9-I130</f>
-        <v>3.4402777777777778</v>
+        <v>3.1416666666666666</v>
       </c>
       <c r="J131" s="38">
         <f>Parameters!$G$9-J130</f>
-        <v>3.4402777777777778</v>
+        <v>3.1416666666666666</v>
       </c>
       <c r="K131" s="38">
         <f>Parameters!$G$9-K130</f>
-        <v>3.4402777777777778</v>
+        <v>3.1416666666666666</v>
       </c>
       <c r="L131" s="38">
         <f>Parameters!$G$9-L130</f>
-        <v>3.4402777777777778</v>
+        <v>3.1416666666666666</v>
       </c>
       <c r="O131" s="38"/>
       <c r="P131" s="38"/>
@@ -24942,7 +24970,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -29177,7 +29205,7 @@
       </c>
       <c r="I7" s="47">
         <f>SUM('Serkan Efe Durusu'!I7,'Ismail Elmasry'!I7,'can Işmar'!I7,'Marios Papalouka'!I7,'Metehan Topaç'!I7,'Celine Zanders '!I7)</f>
-        <v>0</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="J7" s="47">
         <f>SUM('Serkan Efe Durusu'!J7,'Ismail Elmasry'!J7,'can Işmar'!J7,'Marios Papalouka'!J7,'Metehan Topaç'!J7,'Celine Zanders '!J7)</f>
@@ -29193,7 +29221,7 @@
       </c>
       <c r="M7" s="50">
         <f t="shared" si="0"/>
-        <v>0.26041666666666663</v>
+        <v>0.26736111111111105</v>
       </c>
       <c r="N7" s="49" t="str">
         <f t="array" ref="N7">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M7/INDEX(Tasks,2,3),"")</f>
@@ -30256,7 +30284,7 @@
       </c>
       <c r="I27" s="47">
         <f>SUM('Serkan Efe Durusu'!I27,'Ismail Elmasry'!I27,'can Işmar'!I27,'Marios Papalouka'!I27,'Metehan Topaç'!I27,'Celine Zanders '!I27)</f>
-        <v>0</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="J27" s="47">
         <f>SUM('Serkan Efe Durusu'!J27,'Ismail Elmasry'!J27,'can Işmar'!J27,'Marios Papalouka'!J27,'Metehan Topaç'!J27,'Celine Zanders '!J27)</f>
@@ -30272,7 +30300,7 @@
       </c>
       <c r="M27" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="N27" s="49" t="str">
         <f t="array" ref="N27">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M27/INDEX(Tasks,2,3),"")</f>
@@ -30310,7 +30338,7 @@
       </c>
       <c r="I28" s="47">
         <f>SUM('Serkan Efe Durusu'!I28,'Ismail Elmasry'!I28,'can Işmar'!I28,'Marios Papalouka'!I28,'Metehan Topaç'!I28,'Celine Zanders '!I28)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J28" s="47">
         <f>SUM('Serkan Efe Durusu'!J28,'Ismail Elmasry'!J28,'can Işmar'!J28,'Marios Papalouka'!J28,'Metehan Topaç'!J28,'Celine Zanders '!J28)</f>
@@ -30326,7 +30354,7 @@
       </c>
       <c r="M28" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="N28" s="49" t="str">
         <f t="array" ref="N28">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M28/INDEX(Tasks,1,3),"")</f>
@@ -30364,7 +30392,7 @@
       </c>
       <c r="I29" s="47">
         <f>SUM('Serkan Efe Durusu'!I29,'Ismail Elmasry'!I29,'can Işmar'!I29,'Marios Papalouka'!I29,'Metehan Topaç'!I29,'Celine Zanders '!I29)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="J29" s="47">
         <f>SUM('Serkan Efe Durusu'!J29,'Ismail Elmasry'!J29,'can Işmar'!J29,'Marios Papalouka'!J29,'Metehan Topaç'!J29,'Celine Zanders '!J29)</f>
@@ -30380,7 +30408,7 @@
       </c>
       <c r="M29" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="N29" s="49" t="str">
         <f t="array" ref="N29">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M29/INDEX(Tasks,2,3),"")</f>
@@ -35488,7 +35516,7 @@
       </c>
       <c r="I135" s="43">
         <f>'Serkan Efe Durusu'!I128</f>
-        <v>0.1875</v>
+        <v>0.48611111111111105</v>
       </c>
       <c r="J135" s="43">
         <f>'Serkan Efe Durusu'!J128</f>
@@ -35504,7 +35532,7 @@
       </c>
       <c r="M135" s="53">
         <f t="shared" ref="M135:M143" si="1">SUM(C135:L135)</f>
-        <v>2.3930555555555553</v>
+        <v>2.6916666666666664</v>
       </c>
     </row>
     <row r="136" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35864,7 +35892,7 @@
       </c>
       <c r="I143" s="53">
         <f t="shared" si="2"/>
-        <v>0.77083333333333337</v>
+        <v>1.0694444444444444</v>
       </c>
       <c r="J143" s="53">
         <f t="shared" si="2"/>
@@ -35880,7 +35908,7 @@
       </c>
       <c r="M143" s="53">
         <f t="shared" si="1"/>
-        <v>11.35138888888889</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="144" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Group25 DBL Scrum Timesheets.xlsx
+++ b/Group25 DBL Scrum Timesheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G\Documents\Documenten TU-Eindhoven\Year 1 - Q4\DBL C++\Github\Embedded_system_group25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/m_topac_student_tue_nl/Documents/Year 1/Q4/2IO75 - DBL Embedded Systems/GitHub Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A6E958-F669-451F-8F58-4F770F7C5D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{71A6E958-F669-451F-8F58-4F770F7C5D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BC6CCFA-D513-49B5-9E4D-526A68ED3DA3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="229">
   <si>
     <t>Project:</t>
   </si>
@@ -726,6 +726,15 @@
   <si>
     <t>Remark: some weeks gave problems uploading hence higher hours in some weeks</t>
   </si>
+  <si>
+    <t>Sprint Task 4.4: Merging the gripper code with servo code</t>
+  </si>
+  <si>
+    <t>Sprint Task 4.5: Work on servo code after the testing done in the additional meeting</t>
+  </si>
+  <si>
+    <t>Sprint Task 4.6: Integrating switch code into arm code</t>
+  </si>
 </sst>
 </file>
 
@@ -1202,7 +1211,7 @@
                   <c:v>1.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.53125</c:v>
+                  <c:v>2.802083333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.614583333333333</c:v>
@@ -1449,7 +1458,7 @@
                   <c:v>1.1875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0694444444444444</c:v>
+                  <c:v>1.3402777777777777</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1488,7 +1497,7 @@
                   <c:v>1.1875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0694444444444444</c:v>
+                  <c:v>1.3402777777777777</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2061,16 +2070,16 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.22916666666666669</c:v>
+                  <c:v>0.27083333333333331</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.27083333333333331</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1666666666666664E-2</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>9.375E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>5.2083333333333329E-2</c:v>
@@ -4349,7 +4358,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -9217,7 +9226,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -9245,7 +9254,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -9273,7 +9282,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -13362,7 +13371,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -13390,7 +13399,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -13418,7 +13427,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -13506,7 +13515,7 @@
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="str">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>Sprint Task 4.5: requesting parts</v>
@@ -13532,7 +13541,7 @@
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="str">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>Belt inspection:</v>
@@ -13558,7 +13567,7 @@
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="str">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>sprint Task 4.6: Fixing the robot manipulator 3D mesh</v>
@@ -13584,7 +13593,7 @@
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="str">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>Sprint Task: testing servo</v>
@@ -17467,7 +17476,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -17495,7 +17504,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -17523,7 +17532,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -17605,7 +17614,7 @@
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="str">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>Sprint Task 4.5: requesting parts</v>
@@ -17631,7 +17640,7 @@
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="str">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>Belt inspection:</v>
@@ -17657,7 +17666,7 @@
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="str">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>sprint Task 4.6: Fixing the robot manipulator 3D mesh</v>
@@ -17683,7 +17692,7 @@
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="str">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>Sprint Task: testing servo</v>
@@ -20894,8 +20903,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21422,7 +21431,7 @@
       <c r="G21" s="43"/>
       <c r="H21" s="43"/>
       <c r="I21" s="43">
-        <v>0.20833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="J21" s="43"/>
       <c r="K21" s="43"/>
@@ -21439,14 +21448,18 @@
       <c r="X21" s="38"/>
     </row>
     <row r="22" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="43"/>
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
+      <c r="I22" s="43">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="J22" s="43"/>
       <c r="K22" s="43"/>
       <c r="L22" s="43"/>
@@ -21462,14 +21475,18 @@
       <c r="X22" s="38"/>
     </row>
     <row r="23" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
       <c r="E23" s="43"/>
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
+      <c r="I23" s="43">
+        <v>0.125</v>
+      </c>
       <c r="J23" s="43"/>
       <c r="K23" s="43"/>
       <c r="L23" s="43"/>
@@ -21485,14 +21502,18 @@
       <c r="X23" s="38"/>
     </row>
     <row r="24" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="43"/>
       <c r="F24" s="14"/>
       <c r="G24" s="43"/>
       <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
+      <c r="I24" s="43">
+        <v>6.25E-2</v>
+      </c>
       <c r="J24" s="43"/>
       <c r="K24" s="43"/>
       <c r="L24" s="43"/>
@@ -21555,7 +21576,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="18"/>
       <c r="C27" s="10"/>
@@ -21580,7 +21601,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -21605,7 +21626,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
@@ -21681,7 +21702,7 @@
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="str">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>Sprint Task 4.5: requesting parts</v>
@@ -21707,7 +21728,7 @@
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="str">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>Belt inspection:</v>
@@ -21733,7 +21754,7 @@
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="str">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>sprint Task 4.6: Fixing the robot manipulator 3D mesh</v>
@@ -21759,7 +21780,7 @@
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="str">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>Sprint Task: testing servo</v>
@@ -23786,7 +23807,7 @@
       <c r="W122" s="38"/>
       <c r="X122" s="38"/>
     </row>
-    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="18"/>
       <c r="C123" s="44"/>
       <c r="D123" s="44"/>
@@ -23809,7 +23830,7 @@
       <c r="W123" s="38"/>
       <c r="X123" s="38"/>
     </row>
-    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="18"/>
       <c r="C124" s="44"/>
       <c r="D124" s="44"/>
@@ -23832,7 +23853,7 @@
       <c r="W124" s="38"/>
       <c r="X124" s="38"/>
     </row>
-    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="18"/>
       <c r="C125" s="44"/>
       <c r="D125" s="44"/>
@@ -23855,7 +23876,7 @@
       <c r="W125" s="38"/>
       <c r="X125" s="38"/>
     </row>
-    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="18"/>
       <c r="C126" s="44"/>
       <c r="D126" s="44"/>
@@ -23878,7 +23899,7 @@
       <c r="W126" s="38"/>
       <c r="X126" s="38"/>
     </row>
-    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="18"/>
       <c r="C127" s="44"/>
       <c r="D127" s="44"/>
@@ -23901,7 +23922,7 @@
       <c r="W127" s="38"/>
       <c r="X127" s="38"/>
     </row>
-    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="18" t="s">
         <v>176</v>
       </c>
@@ -23931,7 +23952,7 @@
       </c>
       <c r="I128" s="45">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="J128" s="45">
         <f t="shared" si="0"/>
@@ -23956,7 +23977,7 @@
       <c r="W128" s="38"/>
       <c r="X128" s="38"/>
     </row>
-    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="18"/>
       <c r="M129" s="46"/>
       <c r="O129" s="38"/>
@@ -24000,19 +24021,19 @@
       </c>
       <c r="I130" s="38">
         <f>SUM(C128:I128)</f>
-        <v>2.53125</v>
+        <v>2.802083333333333</v>
       </c>
       <c r="J130" s="38">
         <f>SUM(C128:J128)</f>
-        <v>2.53125</v>
+        <v>2.802083333333333</v>
       </c>
       <c r="K130" s="38">
         <f>SUM(C128:K128)</f>
-        <v>2.53125</v>
+        <v>2.802083333333333</v>
       </c>
       <c r="L130" s="38">
         <f>SUM(C128:L128)</f>
-        <v>2.53125</v>
+        <v>2.802083333333333</v>
       </c>
       <c r="M130" s="46"/>
       <c r="O130" s="38"/>
@@ -24056,19 +24077,19 @@
       </c>
       <c r="I131" s="38">
         <f>Parameters!$G$9-I130</f>
-        <v>3.302083333333333</v>
+        <v>3.03125</v>
       </c>
       <c r="J131" s="38">
         <f>Parameters!$G$9-J130</f>
-        <v>3.302083333333333</v>
+        <v>3.03125</v>
       </c>
       <c r="K131" s="38">
         <f>Parameters!$G$9-K130</f>
-        <v>3.302083333333333</v>
+        <v>3.03125</v>
       </c>
       <c r="L131" s="38">
         <f>Parameters!$G$9-L130</f>
-        <v>3.302083333333333</v>
+        <v>3.03125</v>
       </c>
       <c r="O131" s="38"/>
       <c r="P131" s="38"/>
@@ -24970,7 +24991,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -25635,7 +25656,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -25663,7 +25684,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -25691,7 +25712,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -25773,7 +25794,7 @@
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="str">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>Sprint Task 4.5: requesting parts</v>
@@ -25799,7 +25820,7 @@
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="str">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>Belt inspection:</v>
@@ -25825,7 +25846,7 @@
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="str">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>sprint Task 4.6: Fixing the robot manipulator 3D mesh</v>
@@ -25851,7 +25872,7 @@
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="str">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>Sprint Task: testing servo</v>
@@ -27878,7 +27899,7 @@
       <c r="W122" s="38"/>
       <c r="X122" s="38"/>
     </row>
-    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="18"/>
       <c r="C123" s="44"/>
       <c r="D123" s="44"/>
@@ -27901,7 +27922,7 @@
       <c r="W123" s="38"/>
       <c r="X123" s="38"/>
     </row>
-    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="18"/>
       <c r="C124" s="44"/>
       <c r="D124" s="44"/>
@@ -27924,7 +27945,7 @@
       <c r="W124" s="38"/>
       <c r="X124" s="38"/>
     </row>
-    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="18"/>
       <c r="C125" s="44"/>
       <c r="D125" s="44"/>
@@ -27947,7 +27968,7 @@
       <c r="W125" s="38"/>
       <c r="X125" s="38"/>
     </row>
-    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="18"/>
       <c r="C126" s="44"/>
       <c r="D126" s="44"/>
@@ -27970,7 +27991,7 @@
       <c r="W126" s="38"/>
       <c r="X126" s="38"/>
     </row>
-    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="18"/>
       <c r="C127" s="44"/>
       <c r="D127" s="44"/>
@@ -27993,7 +28014,7 @@
       <c r="W127" s="38"/>
       <c r="X127" s="38"/>
     </row>
-    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="18" t="s">
         <v>176</v>
       </c>
@@ -28048,7 +28069,7 @@
       <c r="W128" s="38"/>
       <c r="X128" s="38"/>
     </row>
-    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="18"/>
       <c r="M129" s="46"/>
       <c r="O129" s="38"/>
@@ -29960,7 +29981,7 @@
       </c>
       <c r="I21" s="47">
         <f>SUM('Serkan Efe Durusu'!I21,'Ismail Elmasry'!I21,'can Işmar'!I21,'Marios Papalouka'!I21,'Metehan Topaç'!I21,'Celine Zanders '!I21)</f>
-        <v>0.22916666666666669</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="J21" s="47">
         <f>SUM('Serkan Efe Durusu'!J21,'Ismail Elmasry'!J21,'can Işmar'!J21,'Marios Papalouka'!J21,'Metehan Topaç'!J21,'Celine Zanders '!J21)</f>
@@ -29976,7 +29997,7 @@
       </c>
       <c r="M21" s="50">
         <f t="shared" si="0"/>
-        <v>0.22916666666666669</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="N21" s="49" t="str">
         <f t="array" ref="N21">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M21/INDEX(Tasks,2,3),"")</f>
@@ -30014,7 +30035,7 @@
       </c>
       <c r="I22" s="47">
         <f>SUM('Serkan Efe Durusu'!I22,'Ismail Elmasry'!I22,'can Işmar'!I22,'Marios Papalouka'!I22,'Metehan Topaç'!I22,'Celine Zanders '!I22)</f>
-        <v>2.0833333333333332E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="J22" s="47">
         <f>SUM('Serkan Efe Durusu'!J22,'Ismail Elmasry'!J22,'can Işmar'!J22,'Marios Papalouka'!J22,'Metehan Topaç'!J22,'Celine Zanders '!J22)</f>
@@ -30030,7 +30051,7 @@
       </c>
       <c r="M22" s="50">
         <f t="shared" si="0"/>
-        <v>0.27083333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="N22" s="49" t="str">
         <f t="array" ref="N22">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M22/INDEX(Tasks,1,3),"")</f>
@@ -30068,7 +30089,7 @@
       </c>
       <c r="I23" s="47">
         <f>SUM('Serkan Efe Durusu'!I23,'Ismail Elmasry'!I23,'can Işmar'!I23,'Marios Papalouka'!I23,'Metehan Topaç'!I23,'Celine Zanders '!I23)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J23" s="47">
         <f>SUM('Serkan Efe Durusu'!J23,'Ismail Elmasry'!J23,'can Işmar'!J23,'Marios Papalouka'!J23,'Metehan Topaç'!J23,'Celine Zanders '!J23)</f>
@@ -30084,7 +30105,7 @@
       </c>
       <c r="M23" s="50">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N23" s="49" t="str">
         <f t="array" ref="N23">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M23/INDEX(Tasks,2,3),"")</f>
@@ -30122,7 +30143,7 @@
       </c>
       <c r="I24" s="47">
         <f>SUM('Serkan Efe Durusu'!I24,'Ismail Elmasry'!I24,'can Işmar'!I24,'Marios Papalouka'!I24,'Metehan Topaç'!I24,'Celine Zanders '!I24)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="J24" s="47">
         <f>SUM('Serkan Efe Durusu'!J24,'Ismail Elmasry'!J24,'can Işmar'!J24,'Marios Papalouka'!J24,'Metehan Topaç'!J24,'Celine Zanders '!J24)</f>
@@ -30138,7 +30159,7 @@
       </c>
       <c r="M24" s="50">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N24" s="49" t="str">
         <f t="array" ref="N24">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M24/INDEX(Tasks,1,3),"")</f>
@@ -35447,7 +35468,7 @@
     <row r="130" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="25"/>
     </row>
     <row r="134" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35716,7 +35737,7 @@
       </c>
       <c r="I139" s="43">
         <f>'Metehan Topaç'!I128</f>
-        <v>0.58333333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="J139" s="43">
         <f>'Metehan Topaç'!J128</f>
@@ -35732,7 +35753,7 @@
       </c>
       <c r="M139" s="53">
         <f t="shared" si="1"/>
-        <v>2.53125</v>
+        <v>2.802083333333333</v>
       </c>
     </row>
     <row r="140" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35892,7 +35913,7 @@
       </c>
       <c r="I143" s="53">
         <f t="shared" si="2"/>
-        <v>1.0694444444444444</v>
+        <v>1.3402777777777777</v>
       </c>
       <c r="J143" s="53">
         <f t="shared" si="2"/>
@@ -35908,7 +35929,7 @@
       </c>
       <c r="M143" s="53">
         <f t="shared" si="1"/>
-        <v>11.65</v>
+        <v>11.920833333333334</v>
       </c>
     </row>
     <row r="144" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Group25 DBL Scrum Timesheets.xlsx
+++ b/Group25 DBL Scrum Timesheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/m_topac_student_tue_nl/Documents/Year 1/Q4/2IO75 - DBL Embedded Systems/GitHub Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{71A6E958-F669-451F-8F58-4F770F7C5D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BC6CCFA-D513-49B5-9E4D-526A68ED3DA3}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{71A6E958-F669-451F-8F58-4F770F7C5D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20374D9E-85F5-4092-AD32-EA167898FC76}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="230">
   <si>
     <t>Project:</t>
   </si>
@@ -735,6 +735,9 @@
   <si>
     <t>Sprint Task 4.6: Integrating switch code into arm code</t>
   </si>
+  <si>
+    <t>Sprint Task 4.7: Research on how to fix memory problem of the arduino</t>
+  </si>
 </sst>
 </file>
 
@@ -1211,7 +1214,7 @@
                   <c:v>1.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.802083333333333</c:v>
+                  <c:v>3.1354166666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.614583333333333</c:v>
@@ -1458,7 +1461,7 @@
                   <c:v>1.1875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3402777777777777</c:v>
+                  <c:v>1.6736111111111112</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1497,7 +1500,7 @@
                   <c:v>1.1875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3402777777777777</c:v>
+                  <c:v>1.6736111111111112</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2070,19 +2073,19 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.27083333333333331</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.35416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.375E-2</c:v>
+                  <c:v>0.13541666666666669</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.2083333333333329E-2</c:v>
+                  <c:v>0.26041666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16809,7 +16812,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -20903,8 +20906,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21431,7 +21434,7 @@
       <c r="G21" s="43"/>
       <c r="H21" s="43"/>
       <c r="I21" s="43">
-        <v>0.25</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="J21" s="43"/>
       <c r="K21" s="43"/>
@@ -21458,7 +21461,7 @@
       <c r="G22" s="43"/>
       <c r="H22" s="43"/>
       <c r="I22" s="43">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J22" s="43"/>
       <c r="K22" s="43"/>
@@ -21512,7 +21515,7 @@
       <c r="G24" s="43"/>
       <c r="H24" s="43"/>
       <c r="I24" s="43">
-        <v>6.25E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="J24" s="43"/>
       <c r="K24" s="43"/>
@@ -21529,14 +21532,18 @@
       <c r="X24" s="38"/>
     </row>
     <row r="25" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="43"/>
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
+      <c r="I25" s="43">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="J25" s="43"/>
       <c r="K25" s="43"/>
       <c r="L25" s="43"/>
@@ -23952,7 +23959,7 @@
       </c>
       <c r="I128" s="45">
         <f t="shared" si="0"/>
-        <v>0.85416666666666663</v>
+        <v>1.1875</v>
       </c>
       <c r="J128" s="45">
         <f t="shared" si="0"/>
@@ -24021,19 +24028,19 @@
       </c>
       <c r="I130" s="38">
         <f>SUM(C128:I128)</f>
-        <v>2.802083333333333</v>
+        <v>3.1354166666666665</v>
       </c>
       <c r="J130" s="38">
         <f>SUM(C128:J128)</f>
-        <v>2.802083333333333</v>
+        <v>3.1354166666666665</v>
       </c>
       <c r="K130" s="38">
         <f>SUM(C128:K128)</f>
-        <v>2.802083333333333</v>
+        <v>3.1354166666666665</v>
       </c>
       <c r="L130" s="38">
         <f>SUM(C128:L128)</f>
-        <v>2.802083333333333</v>
+        <v>3.1354166666666665</v>
       </c>
       <c r="M130" s="46"/>
       <c r="O130" s="38"/>
@@ -24077,19 +24084,19 @@
       </c>
       <c r="I131" s="38">
         <f>Parameters!$G$9-I130</f>
-        <v>3.03125</v>
+        <v>2.6979166666666665</v>
       </c>
       <c r="J131" s="38">
         <f>Parameters!$G$9-J130</f>
-        <v>3.03125</v>
+        <v>2.6979166666666665</v>
       </c>
       <c r="K131" s="38">
         <f>Parameters!$G$9-K130</f>
-        <v>3.03125</v>
+        <v>2.6979166666666665</v>
       </c>
       <c r="L131" s="38">
         <f>Parameters!$G$9-L130</f>
-        <v>3.03125</v>
+        <v>2.6979166666666665</v>
       </c>
       <c r="O131" s="38"/>
       <c r="P131" s="38"/>
@@ -24991,7 +24998,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -25794,7 +25801,7 @@
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="18" t="str">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>Sprint Task 4.5: requesting parts</v>
@@ -25820,7 +25827,7 @@
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="18" t="str">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>Belt inspection:</v>
@@ -25846,7 +25853,7 @@
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="18" t="str">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>sprint Task 4.6: Fixing the robot manipulator 3D mesh</v>
@@ -25872,7 +25879,7 @@
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="18" t="str">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>Sprint Task: testing servo</v>
@@ -27899,7 +27906,7 @@
       <c r="W122" s="38"/>
       <c r="X122" s="38"/>
     </row>
-    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B123" s="18"/>
       <c r="C123" s="44"/>
       <c r="D123" s="44"/>
@@ -27922,7 +27929,7 @@
       <c r="W123" s="38"/>
       <c r="X123" s="38"/>
     </row>
-    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B124" s="18"/>
       <c r="C124" s="44"/>
       <c r="D124" s="44"/>
@@ -27945,7 +27952,7 @@
       <c r="W124" s="38"/>
       <c r="X124" s="38"/>
     </row>
-    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B125" s="18"/>
       <c r="C125" s="44"/>
       <c r="D125" s="44"/>
@@ -27968,7 +27975,7 @@
       <c r="W125" s="38"/>
       <c r="X125" s="38"/>
     </row>
-    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B126" s="18"/>
       <c r="C126" s="44"/>
       <c r="D126" s="44"/>
@@ -27991,7 +27998,7 @@
       <c r="W126" s="38"/>
       <c r="X126" s="38"/>
     </row>
-    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B127" s="18"/>
       <c r="C127" s="44"/>
       <c r="D127" s="44"/>
@@ -28014,7 +28021,7 @@
       <c r="W127" s="38"/>
       <c r="X127" s="38"/>
     </row>
-    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="18" t="s">
         <v>176</v>
       </c>
@@ -28069,7 +28076,7 @@
       <c r="W128" s="38"/>
       <c r="X128" s="38"/>
     </row>
-    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B129" s="18"/>
       <c r="M129" s="46"/>
       <c r="O129" s="38"/>
@@ -29981,7 +29988,7 @@
       </c>
       <c r="I21" s="47">
         <f>SUM('Serkan Efe Durusu'!I21,'Ismail Elmasry'!I21,'can Işmar'!I21,'Marios Papalouka'!I21,'Metehan Topaç'!I21,'Celine Zanders '!I21)</f>
-        <v>0.27083333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="J21" s="47">
         <f>SUM('Serkan Efe Durusu'!J21,'Ismail Elmasry'!J21,'can Işmar'!J21,'Marios Papalouka'!J21,'Metehan Topaç'!J21,'Celine Zanders '!J21)</f>
@@ -29997,7 +30004,7 @@
       </c>
       <c r="M21" s="50">
         <f t="shared" si="0"/>
-        <v>0.27083333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="N21" s="49" t="str">
         <f t="array" ref="N21">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M21/INDEX(Tasks,2,3),"")</f>
@@ -30035,7 +30042,7 @@
       </c>
       <c r="I22" s="47">
         <f>SUM('Serkan Efe Durusu'!I22,'Ismail Elmasry'!I22,'can Işmar'!I22,'Marios Papalouka'!I22,'Metehan Topaç'!I22,'Celine Zanders '!I22)</f>
-        <v>6.25E-2</v>
+        <v>0.10416666666666666</v>
       </c>
       <c r="J22" s="47">
         <f>SUM('Serkan Efe Durusu'!J22,'Ismail Elmasry'!J22,'can Işmar'!J22,'Marios Papalouka'!J22,'Metehan Topaç'!J22,'Celine Zanders '!J22)</f>
@@ -30051,7 +30058,7 @@
       </c>
       <c r="M22" s="50">
         <f t="shared" si="0"/>
-        <v>0.3125</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="N22" s="49" t="str">
         <f t="array" ref="N22">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M22/INDEX(Tasks,1,3),"")</f>
@@ -30143,7 +30150,7 @@
       </c>
       <c r="I24" s="47">
         <f>SUM('Serkan Efe Durusu'!I24,'Ismail Elmasry'!I24,'can Işmar'!I24,'Marios Papalouka'!I24,'Metehan Topaç'!I24,'Celine Zanders '!I24)</f>
-        <v>6.25E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="J24" s="47">
         <f>SUM('Serkan Efe Durusu'!J24,'Ismail Elmasry'!J24,'can Işmar'!J24,'Marios Papalouka'!J24,'Metehan Topaç'!J24,'Celine Zanders '!J24)</f>
@@ -30159,7 +30166,7 @@
       </c>
       <c r="M24" s="50">
         <f t="shared" si="0"/>
-        <v>9.375E-2</v>
+        <v>0.13541666666666669</v>
       </c>
       <c r="N24" s="49" t="str">
         <f t="array" ref="N24">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M24/INDEX(Tasks,1,3),"")</f>
@@ -30197,7 +30204,7 @@
       </c>
       <c r="I25" s="47">
         <f>SUM('Serkan Efe Durusu'!I25,'Ismail Elmasry'!I25,'can Işmar'!I25,'Marios Papalouka'!I25,'Metehan Topaç'!I25,'Celine Zanders '!I25)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>0.21875</v>
       </c>
       <c r="J25" s="47">
         <f>SUM('Serkan Efe Durusu'!J25,'Ismail Elmasry'!J25,'can Işmar'!J25,'Marios Papalouka'!J25,'Metehan Topaç'!J25,'Celine Zanders '!J25)</f>
@@ -30213,7 +30220,7 @@
       </c>
       <c r="M25" s="50">
         <f t="shared" si="0"/>
-        <v>5.2083333333333329E-2</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="N25" s="49" t="str">
         <f t="array" ref="N25">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M25/INDEX(Tasks,2,3),"")</f>
@@ -35737,7 +35744,7 @@
       </c>
       <c r="I139" s="43">
         <f>'Metehan Topaç'!I128</f>
-        <v>0.85416666666666663</v>
+        <v>1.1875</v>
       </c>
       <c r="J139" s="43">
         <f>'Metehan Topaç'!J128</f>
@@ -35753,7 +35760,7 @@
       </c>
       <c r="M139" s="53">
         <f t="shared" si="1"/>
-        <v>2.802083333333333</v>
+        <v>3.1354166666666665</v>
       </c>
     </row>
     <row r="140" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35913,7 +35920,7 @@
       </c>
       <c r="I143" s="53">
         <f t="shared" si="2"/>
-        <v>1.3402777777777777</v>
+        <v>1.6736111111111112</v>
       </c>
       <c r="J143" s="53">
         <f t="shared" si="2"/>
@@ -35929,7 +35936,7 @@
       </c>
       <c r="M143" s="53">
         <f t="shared" si="1"/>
-        <v>11.920833333333334</v>
+        <v>12.254166666666666</v>
       </c>
     </row>
     <row r="144" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Group25 DBL Scrum Timesheets.xlsx
+++ b/Group25 DBL Scrum Timesheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/m_topac_student_tue_nl/Documents/Year 1/Q4/2IO75 - DBL Embedded Systems/GitHub Repository/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/c_i_zanders_student_tue_nl/Documents/Documents/gitkraken/Embedded_system_group25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{71A6E958-F669-451F-8F58-4F770F7C5D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20374D9E-85F5-4092-AD32-EA167898FC76}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{71A6E958-F669-451F-8F58-4F770F7C5D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6584632B-B436-4615-832F-61E73A2CABF9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -1205,7 +1204,7 @@
                   <c:v>2.6916666666666664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95833333333333337</c:v>
+                  <c:v>1.4479166666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.4791666666666665</c:v>
@@ -1303,7 +1302,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2091029163"/>
@@ -1379,7 +1378,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="443840806"/>
@@ -1402,7 +1401,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1458,10 +1457,10 @@
                   <c:v>2.0104166666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1875</c:v>
+                  <c:v>1.520833333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6736111111111112</c:v>
+                  <c:v>1.8298611111111112</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1497,10 +1496,10 @@
                   <c:v>2.0104166666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1875</c:v>
+                  <c:v>1.520833333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6736111111111112</c:v>
+                  <c:v>1.8298611111111112</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1575,7 +1574,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1669176459"/>
@@ -1621,7 +1620,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2040,7 +2039,7 @@
                   <c:v>0.14583333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0312499999999996</c:v>
+                  <c:v>3.1666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2131,7 +2130,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4361,7 +4360,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -9229,7 +9228,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -9257,7 +9256,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -9285,7 +9284,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -12691,7 +12690,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -13374,7 +13373,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -13402,7 +13401,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -13430,7 +13429,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -13518,7 +13517,7 @@
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="18" t="str">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>Sprint Task 4.5: requesting parts</v>
@@ -13544,7 +13543,7 @@
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="18" t="str">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>Belt inspection:</v>
@@ -13570,7 +13569,7 @@
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="18" t="str">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>sprint Task 4.6: Fixing the robot manipulator 3D mesh</v>
@@ -13596,7 +13595,7 @@
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="18" t="str">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>Sprint Task: testing servo</v>
@@ -17479,7 +17478,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -17507,7 +17506,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -17535,7 +17534,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -17617,7 +17616,7 @@
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="18" t="str">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>Sprint Task 4.5: requesting parts</v>
@@ -17643,7 +17642,7 @@
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="18" t="str">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>Belt inspection:</v>
@@ -17669,7 +17668,7 @@
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="18" t="str">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>sprint Task 4.6: Fixing the robot manipulator 3D mesh</v>
@@ -17695,7 +17694,7 @@
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="18" t="str">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>Sprint Task: testing servo</v>
@@ -20906,7 +20905,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -21583,7 +21582,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="18"/>
       <c r="C27" s="10"/>
@@ -21608,7 +21607,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -21633,7 +21632,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
@@ -21709,7 +21708,7 @@
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="18" t="str">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>Sprint Task 4.5: requesting parts</v>
@@ -21735,7 +21734,7 @@
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="18" t="str">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>Belt inspection:</v>
@@ -21761,7 +21760,7 @@
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="18" t="str">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>sprint Task 4.6: Fixing the robot manipulator 3D mesh</v>
@@ -21787,7 +21786,7 @@
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="18" t="str">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>Sprint Task: testing servo</v>
@@ -23814,7 +23813,7 @@
       <c r="W122" s="38"/>
       <c r="X122" s="38"/>
     </row>
-    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B123" s="18"/>
       <c r="C123" s="44"/>
       <c r="D123" s="44"/>
@@ -23837,7 +23836,7 @@
       <c r="W123" s="38"/>
       <c r="X123" s="38"/>
     </row>
-    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B124" s="18"/>
       <c r="C124" s="44"/>
       <c r="D124" s="44"/>
@@ -23860,7 +23859,7 @@
       <c r="W124" s="38"/>
       <c r="X124" s="38"/>
     </row>
-    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B125" s="18"/>
       <c r="C125" s="44"/>
       <c r="D125" s="44"/>
@@ -23883,7 +23882,7 @@
       <c r="W125" s="38"/>
       <c r="X125" s="38"/>
     </row>
-    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B126" s="18"/>
       <c r="C126" s="44"/>
       <c r="D126" s="44"/>
@@ -23906,7 +23905,7 @@
       <c r="W126" s="38"/>
       <c r="X126" s="38"/>
     </row>
-    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B127" s="18"/>
       <c r="C127" s="44"/>
       <c r="D127" s="44"/>
@@ -23929,7 +23928,7 @@
       <c r="W127" s="38"/>
       <c r="X127" s="38"/>
     </row>
-    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="18" t="s">
         <v>176</v>
       </c>
@@ -23984,7 +23983,7 @@
       <c r="W128" s="38"/>
       <c r="X128" s="38"/>
     </row>
-    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B129" s="18"/>
       <c r="M129" s="46"/>
       <c r="O129" s="38"/>
@@ -24998,8 +24997,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25218,8 +25217,12 @@
       <c r="G10" s="43">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="11"/>
+      <c r="H10" s="43">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I10" s="11">
+        <v>5.2083333333333336E-2</v>
+      </c>
       <c r="J10" s="43"/>
       <c r="K10" s="43"/>
       <c r="L10" s="43"/>
@@ -25254,8 +25257,12 @@
       <c r="G11" s="43">
         <v>6.25E-2</v>
       </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="43"/>
+      <c r="H11" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="I11" s="43">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="J11" s="38"/>
       <c r="K11" s="43"/>
       <c r="L11" s="43"/>
@@ -25663,7 +25670,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -25691,7 +25698,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -25719,7 +25726,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -25786,7 +25793,9 @@
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
       <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
+      <c r="I31" s="44">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="J31" s="44"/>
       <c r="K31" s="44"/>
       <c r="L31" s="44"/>
@@ -28047,11 +28056,11 @@
       </c>
       <c r="H128" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I128" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.15625</v>
       </c>
       <c r="J128" s="45">
         <f t="shared" si="0"/>
@@ -28116,23 +28125,23 @@
       </c>
       <c r="H130" s="38">
         <f>SUM(C128:H128)</f>
-        <v>0.95833333333333337</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="I130" s="38">
         <f>SUM(C128:I128)</f>
-        <v>0.95833333333333337</v>
+        <v>1.4479166666666667</v>
       </c>
       <c r="J130" s="38">
         <f>SUM(C128:J128)</f>
-        <v>0.95833333333333337</v>
+        <v>1.4479166666666667</v>
       </c>
       <c r="K130" s="38">
         <f>SUM(C128:K128)</f>
-        <v>0.95833333333333337</v>
+        <v>1.4479166666666667</v>
       </c>
       <c r="L130" s="38">
         <f>SUM(C128:L128)</f>
-        <v>0.95833333333333337</v>
+        <v>1.4479166666666667</v>
       </c>
       <c r="M130" s="46"/>
       <c r="O130" s="38"/>
@@ -28172,23 +28181,23 @@
       </c>
       <c r="H131" s="38">
         <f>Parameters!$G$9-H130</f>
-        <v>4.875</v>
+        <v>4.5416666666666661</v>
       </c>
       <c r="I131" s="38">
         <f>Parameters!$G$9-I130</f>
-        <v>4.875</v>
+        <v>4.3854166666666661</v>
       </c>
       <c r="J131" s="38">
         <f>Parameters!$G$9-J130</f>
-        <v>4.875</v>
+        <v>4.3854166666666661</v>
       </c>
       <c r="K131" s="38">
         <f>Parameters!$G$9-K130</f>
-        <v>4.875</v>
+        <v>4.3854166666666661</v>
       </c>
       <c r="L131" s="38">
         <f>Parameters!$G$9-L130</f>
-        <v>4.875</v>
+        <v>4.3854166666666661</v>
       </c>
       <c r="O131" s="38"/>
       <c r="P131" s="38"/>
@@ -29391,11 +29400,11 @@
       </c>
       <c r="H10" s="47">
         <f>SUM('Serkan Efe Durusu'!H10,'Ismail Elmasry'!H10,'can Işmar'!H10,'Marios Papalouka'!H10,'Metehan Topaç'!H10,'Celine Zanders '!H10)</f>
-        <v>0.1875</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="I10" s="47">
         <f>SUM('Serkan Efe Durusu'!I10,'Ismail Elmasry'!I10,'can Işmar'!I10,'Marios Papalouka'!I10,'Metehan Topaç'!I10,'Celine Zanders '!I10)</f>
-        <v>5.2083333333333336E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="J10" s="47">
         <f>SUM('Serkan Efe Durusu'!J10,'Ismail Elmasry'!J10,'can Işmar'!J10,'Marios Papalouka'!J10,'Metehan Topaç'!J10,'Celine Zanders '!J10)</f>
@@ -29411,7 +29420,7 @@
       </c>
       <c r="M10" s="50">
         <f t="shared" si="0"/>
-        <v>3.0312499999999996</v>
+        <v>3.1666666666666661</v>
       </c>
       <c r="N10" s="49" t="str">
         <f t="array" ref="N10">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M10/INDEX(Tasks,1,3),"")</f>
@@ -29445,11 +29454,11 @@
       </c>
       <c r="H11" s="47">
         <f>SUM('Serkan Efe Durusu'!H11,'Ismail Elmasry'!H11,'can Işmar'!H11,'Marios Papalouka'!H11,'Metehan Topaç'!H11,'Celine Zanders '!H11)</f>
-        <v>0.14583333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="I11" s="47">
         <f>SUM('Serkan Efe Durusu'!I11,'Ismail Elmasry'!I11,'can Işmar'!I11,'Marios Papalouka'!I11,'Metehan Topaç'!I11,'Celine Zanders '!I11)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="J11" s="47">
         <f>SUM('Serkan Efe Durusu'!J11,'Ismail Elmasry'!J11,'can Işmar'!J11,'Marios Papalouka'!J11,'Metehan Topaç'!J11,'Celine Zanders '!J11)</f>
@@ -30528,7 +30537,7 @@
       </c>
       <c r="I31" s="47">
         <f>SUM('Serkan Efe Durusu'!I31,'Ismail Elmasry'!I31,'can Işmar'!I31,'Marios Papalouka'!I31,'Metehan Topaç'!I31,'Celine Zanders '!I31)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J31" s="47">
         <f>SUM('Serkan Efe Durusu'!J31,'Ismail Elmasry'!J31,'can Işmar'!J31,'Marios Papalouka'!J31,'Metehan Topaç'!J31,'Celine Zanders '!J31)</f>
@@ -30544,7 +30553,7 @@
       </c>
       <c r="M31" s="50">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N31" s="49" t="str">
         <f t="array" ref="N31">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M31/INDEX(Tasks,2,3),"")</f>
@@ -35475,7 +35484,7 @@
     <row r="130" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B133" s="25"/>
     </row>
     <row r="134" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35590,11 +35599,11 @@
       </c>
       <c r="H136" s="26">
         <f>'Celine Zanders '!H128</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I136" s="26">
         <f>'Celine Zanders '!I128</f>
-        <v>0</v>
+        <v>0.15625</v>
       </c>
       <c r="J136" s="26">
         <f>'Celine Zanders '!J128</f>
@@ -35610,7 +35619,7 @@
       </c>
       <c r="M136" s="53">
         <f t="shared" si="1"/>
-        <v>0.95833333333333337</v>
+        <v>1.4479166666666667</v>
       </c>
     </row>
     <row r="137" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35916,11 +35925,11 @@
       </c>
       <c r="H143" s="53">
         <f t="shared" si="2"/>
-        <v>1.1875</v>
+        <v>1.520833333333333</v>
       </c>
       <c r="I143" s="53">
         <f t="shared" si="2"/>
-        <v>1.6736111111111112</v>
+        <v>1.8298611111111112</v>
       </c>
       <c r="J143" s="53">
         <f t="shared" si="2"/>
@@ -35936,7 +35945,7 @@
       </c>
       <c r="M143" s="53">
         <f t="shared" si="1"/>
-        <v>12.254166666666666</v>
+        <v>12.743749999999999</v>
       </c>
     </row>
     <row r="144" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Group25 DBL Scrum Timesheets.xlsx
+++ b/Group25 DBL Scrum Timesheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ismail\Documents\Uni\Embedded_systems\Embedded_system_group25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66496FDD-A9CE-4A6A-AD7E-45FE83FB585E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DE32737-6A27-4ABA-BCA6-16E1ABDDB5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="233">
   <si>
     <t>Project:</t>
   </si>
@@ -628,6 +628,9 @@
     <t>building robot parts</t>
   </si>
   <si>
+    <t>13-05 and 15-05 building robot on campus and fine tuning</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
@@ -638,6 +641,9 @@
   </si>
   <si>
     <t>Time Registration</t>
+  </si>
+  <si>
+    <t>Sprint Task 2.4: Online contact with group members</t>
   </si>
   <si>
     <t>Sprint Task 1.1: Reading Study Guide</t>
@@ -750,7 +756,7 @@
     <numFmt numFmtId="164" formatCode="[h]:mm"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,6 +805,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1012,7 +1024,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1085,6 +1097,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1205,16 +1218,16 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.6916666666666664</c:v>
+                  <c:v>3.8236111111111106</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.4479166666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.520833333333333</c:v>
+                  <c:v>3.2916666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.375</c:v>
+                  <c:v>3.1770833333333339</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.1354166666666665</c:v>
@@ -1446,28 +1459,28 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.021527777777778</c:v>
+                  <c:v>2.0562499999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4791666666666665</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4444444444444442</c:v>
+                  <c:v>1.4722222222222223</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4375</c:v>
+                  <c:v>2.4583333333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0104166666666665</c:v>
+                  <c:v>2.0729166666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.520833333333333</c:v>
+                  <c:v>2.1006944444444442</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7777777777777777</c:v>
+                  <c:v>3.895833333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60416666666666663</c:v>
+                  <c:v>2.4444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1485,28 +1498,28 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.021527777777778</c:v>
+                  <c:v>2.0562499999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4791666666666665</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4444444444444442</c:v>
+                  <c:v>1.4722222222222223</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4375</c:v>
+                  <c:v>2.4583333333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0104166666666665</c:v>
+                  <c:v>2.0729166666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.520833333333333</c:v>
+                  <c:v>2.1006944444444442</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7777777777777777</c:v>
+                  <c:v>3.895833333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60416666666666663</c:v>
+                  <c:v>2.4444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2034,16 +2047,16 @@
                   <c:v>1.1395833333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27777777777777773</c:v>
+                  <c:v>0.3263888888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.12499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14583333333333334</c:v>
+                  <c:v>0.22916666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4166666666666665</c:v>
+                  <c:v>3.7916666666666661</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2076,7 +2089,7 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.45833333333333337</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.35416666666666663</c:v>
@@ -4367,7 +4380,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -4525,7 +4538,9 @@
       <c r="I7" s="11">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="J7" s="11"/>
+      <c r="J7" s="11">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="O7" s="12"/>
@@ -4620,9 +4635,11 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="I10" s="11">
-        <v>5.2083333333333336E-2</v>
-      </c>
-      <c r="J10" s="43"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="J10" s="43">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="K10" s="43"/>
       <c r="L10" s="43"/>
       <c r="O10" s="12"/>
@@ -5192,9 +5209,8 @@
     </row>
     <row r="30" spans="1:24" ht="14.25" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="17" t="str">
-        <f t="array" ref="B30">INDEX(Tasks,25,2)</f>
-        <v>Sprint Task 4.4 Gathering and submitting</v>
+      <c r="B30" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -5202,8 +5218,12 @@
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
+      <c r="I30" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="J30" s="20">
+        <v>0.5</v>
+      </c>
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
       <c r="N30" s="17"/>
@@ -7466,7 +7486,7 @@
     </row>
     <row r="128" spans="2:24" ht="14.25" customHeight="1">
       <c r="B128" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C128" s="45">
         <f t="shared" ref="C128:L128" si="0">SUM(C5:C127)</f>
@@ -7494,11 +7514,11 @@
       </c>
       <c r="I128" s="45">
         <f t="shared" si="0"/>
-        <v>0.48611111111111105</v>
+        <v>1.0277777777777777</v>
       </c>
       <c r="J128" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="K128" s="45">
         <f t="shared" si="0"/>
@@ -7535,7 +7555,7 @@
     </row>
     <row r="130" spans="2:24" ht="14.25" customHeight="1">
       <c r="B130" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C130" s="12">
         <f>SUM(C128)</f>
@@ -7563,19 +7583,19 @@
       </c>
       <c r="I130" s="38">
         <f>SUM(C128:I128)</f>
-        <v>2.6916666666666664</v>
+        <v>3.2333333333333329</v>
       </c>
       <c r="J130" s="38">
         <f>SUM(C128:J128)</f>
-        <v>2.6916666666666664</v>
+        <v>3.8236111111111106</v>
       </c>
       <c r="K130" s="38">
         <f>SUM(C128:K128)</f>
-        <v>2.6916666666666664</v>
+        <v>3.8236111111111106</v>
       </c>
       <c r="L130" s="38">
         <f>SUM(C128:L128)</f>
-        <v>2.6916666666666664</v>
+        <v>3.8236111111111106</v>
       </c>
       <c r="M130" s="46"/>
       <c r="O130" s="38"/>
@@ -7591,7 +7611,7 @@
     </row>
     <row r="131" spans="2:24" ht="14.25" customHeight="1">
       <c r="B131" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C131" s="38">
         <f>Parameters!$G$9-C130</f>
@@ -7619,19 +7639,19 @@
       </c>
       <c r="I131" s="38">
         <f>Parameters!$G$9-I130</f>
-        <v>3.1416666666666666</v>
+        <v>2.6</v>
       </c>
       <c r="J131" s="38">
         <f>Parameters!$G$9-J130</f>
-        <v>3.1416666666666666</v>
+        <v>2.0097222222222224</v>
       </c>
       <c r="K131" s="38">
         <f>Parameters!$G$9-K130</f>
-        <v>3.1416666666666666</v>
+        <v>2.0097222222222224</v>
       </c>
       <c r="L131" s="38">
         <f>Parameters!$G$9-L130</f>
-        <v>3.1416666666666666</v>
+        <v>2.0097222222222224</v>
       </c>
       <c r="O131" s="38"/>
       <c r="P131" s="38"/>
@@ -8533,7 +8553,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -11646,7 +11666,7 @@
     </row>
     <row r="128" spans="2:24" ht="14.25" customHeight="1">
       <c r="B128" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C128" s="45">
         <f t="shared" ref="C128:L128" si="0">SUM(C5:C127)</f>
@@ -11715,7 +11735,7 @@
     </row>
     <row r="130" spans="2:24" ht="14.25" customHeight="1">
       <c r="B130" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C130" s="12">
         <f>SUM(C128)</f>
@@ -11771,7 +11791,7 @@
     </row>
     <row r="131" spans="2:24" ht="14.25" customHeight="1">
       <c r="B131" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C131" s="38">
         <f>Parameters!$G$9-C130</f>
@@ -12713,8 +12733,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -12729,7 +12749,7 @@
     <row r="1" spans="1:24" ht="14.25" customHeight="1"/>
     <row r="2" spans="1:24" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B2" s="1" t="str">
         <f t="array" ref="B2">INDEX(Participants,3,2)</f>
@@ -12863,9 +12883,15 @@
       <c r="G7" s="14">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="H7" s="14">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="I7" s="56">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="J7" s="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="O7" s="12"/>
@@ -12912,13 +12938,21 @@
         <f t="array" ref="B9">INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="43"/>
+      <c r="E9" s="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="43"/>
+      <c r="I9" s="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="J9" s="11"/>
       <c r="K9" s="43"/>
       <c r="L9" s="43"/>
@@ -12994,10 +13028,10 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="H11" s="14">
-        <v>6.25E-2</v>
+        <v>0.3125</v>
       </c>
       <c r="I11" s="43">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="J11" s="38">
         <v>0.5</v>
@@ -13249,18 +13283,33 @@
       <c r="X20" s="38"/>
     </row>
     <row r="21" spans="1:24" ht="14.25" customHeight="1">
-      <c r="B21" s="1" t="str">
-        <f t="array" ref="B21">INDEX(Tasks,16,2)</f>
-        <v>Sprint Task 2.4: UML diagrams</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
+      <c r="B21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D21" s="15">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E21" s="43">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F21" s="43">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G21" s="43">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H21" s="43">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I21" s="43">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="J21" s="43">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="K21" s="43"/>
       <c r="L21" s="43"/>
       <c r="O21" s="12"/>
@@ -13508,10 +13557,18 @@
       <c r="F30" s="20">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
+      <c r="G30" s="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H30" s="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="I30" s="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="J30" s="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
       <c r="N30" s="17"/>
@@ -15774,39 +15831,39 @@
     </row>
     <row r="128" spans="2:24" ht="14.25" customHeight="1">
       <c r="B128" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C128" s="45">
         <f t="shared" ref="C128:L128" si="0">SUM(C5:C127)</f>
-        <v>0.35416666666666663</v>
+        <v>0.38888888888888884</v>
       </c>
       <c r="D128" s="45">
         <f t="shared" si="0"/>
-        <v>0.14583333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E128" s="45">
         <f t="shared" si="0"/>
-        <v>0.20833333333333334</v>
+        <v>0.23611111111111113</v>
       </c>
       <c r="F128" s="45">
         <f t="shared" si="0"/>
-        <v>0.37499999999999994</v>
+        <v>0.39583333333333326</v>
       </c>
       <c r="G128" s="45">
         <f t="shared" si="0"/>
-        <v>0.33333333333333337</v>
+        <v>0.39583333333333326</v>
       </c>
       <c r="H128" s="45">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0.35069444444444442</v>
       </c>
       <c r="I128" s="45">
         <f t="shared" si="0"/>
-        <v>0.4375</v>
+        <v>0.67013888888888884</v>
       </c>
       <c r="J128" s="45">
         <f t="shared" si="0"/>
-        <v>0.60416666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="K128" s="45">
         <f t="shared" si="0"/>
@@ -15843,47 +15900,47 @@
     </row>
     <row r="130" spans="2:24" ht="14.25" customHeight="1">
       <c r="B130" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C130" s="12">
         <f>SUM(C128)</f>
-        <v>0.35416666666666663</v>
+        <v>0.38888888888888884</v>
       </c>
       <c r="D130" s="38">
         <f>SUM(D128,C128)</f>
-        <v>0.49999999999999994</v>
+        <v>0.55555555555555547</v>
       </c>
       <c r="E130" s="38">
         <f>SUM(E128,C128,D128)</f>
-        <v>0.70833333333333326</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="F130" s="38">
         <f>SUM(C128:F128)</f>
-        <v>1.0833333333333333</v>
+        <v>1.1875</v>
       </c>
       <c r="G130" s="38">
         <f>SUM(C128:G128)</f>
-        <v>1.4166666666666665</v>
+        <v>1.5833333333333333</v>
       </c>
       <c r="H130" s="38">
         <f>SUM(C128:H128)</f>
-        <v>1.4791666666666665</v>
+        <v>1.9340277777777777</v>
       </c>
       <c r="I130" s="38">
         <f>SUM(C128:I128)</f>
-        <v>1.9166666666666665</v>
+        <v>2.6041666666666665</v>
       </c>
       <c r="J130" s="38">
         <f>SUM(C128:J128)</f>
-        <v>2.520833333333333</v>
+        <v>3.2916666666666665</v>
       </c>
       <c r="K130" s="38">
         <f>SUM(C128:K128)</f>
-        <v>2.520833333333333</v>
+        <v>3.2916666666666665</v>
       </c>
       <c r="L130" s="38">
         <f>SUM(C128:L128)</f>
-        <v>2.520833333333333</v>
+        <v>3.2916666666666665</v>
       </c>
       <c r="M130" s="46"/>
       <c r="O130" s="38"/>
@@ -15899,47 +15956,47 @@
     </row>
     <row r="131" spans="2:24" ht="14.25" customHeight="1">
       <c r="B131" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C131" s="38">
         <f>Parameters!$G$9-C130</f>
-        <v>5.4791666666666661</v>
+        <v>5.4444444444444446</v>
       </c>
       <c r="D131" s="38">
         <f>Parameters!$G$9-D130</f>
-        <v>5.333333333333333</v>
+        <v>5.2777777777777777</v>
       </c>
       <c r="E131" s="38">
         <f>Parameters!$G$9-E130</f>
-        <v>5.125</v>
+        <v>5.0416666666666661</v>
       </c>
       <c r="F131" s="38">
         <f>Parameters!$G$9-F130</f>
-        <v>4.75</v>
+        <v>4.645833333333333</v>
       </c>
       <c r="G131" s="38">
         <f>Parameters!$G$9-G130</f>
-        <v>4.4166666666666661</v>
+        <v>4.25</v>
       </c>
       <c r="H131" s="38">
         <f>Parameters!$G$9-H130</f>
-        <v>4.3541666666666661</v>
+        <v>3.8993055555555554</v>
       </c>
       <c r="I131" s="38">
         <f>Parameters!$G$9-I130</f>
-        <v>3.9166666666666665</v>
+        <v>3.2291666666666665</v>
       </c>
       <c r="J131" s="38">
         <f>Parameters!$G$9-J130</f>
-        <v>3.3125</v>
+        <v>2.5416666666666665</v>
       </c>
       <c r="K131" s="38">
         <f>Parameters!$G$9-K130</f>
-        <v>3.3125</v>
+        <v>2.5416666666666665</v>
       </c>
       <c r="L131" s="38">
         <f>Parameters!$G$9-L130</f>
-        <v>3.3125</v>
+        <v>2.5416666666666665</v>
       </c>
       <c r="O131" s="38"/>
       <c r="P131" s="38"/>
@@ -16846,8 +16903,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -17066,9 +17123,15 @@
       <c r="G10" s="43">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="43"/>
+      <c r="H10" s="43">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I10" s="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J10" s="43">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="K10" s="43"/>
       <c r="L10" s="43"/>
       <c r="O10" s="12"/>
@@ -17102,9 +17165,15 @@
       <c r="G11" s="43">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="38"/>
+      <c r="H11" s="38">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="I11" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="38">
+        <v>0.25</v>
+      </c>
       <c r="K11" s="43"/>
       <c r="L11" s="43"/>
       <c r="O11" s="6"/>
@@ -17637,7 +17706,9 @@
       <c r="G31" s="44"/>
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
+      <c r="J31" s="44">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="K31" s="44"/>
       <c r="L31" s="44"/>
       <c r="O31" s="38"/>
@@ -17688,7 +17759,9 @@
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
+      <c r="I33" s="44">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="J33" s="44"/>
       <c r="K33" s="44"/>
       <c r="L33" s="44"/>
@@ -19873,7 +19946,7 @@
     </row>
     <row r="128" spans="2:24" ht="14.25" customHeight="1">
       <c r="B128" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C128" s="45">
         <f t="shared" ref="C128:L128" si="0">SUM(C5:C127)</f>
@@ -19897,15 +19970,15 @@
       </c>
       <c r="H128" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="I128" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.34375</v>
       </c>
       <c r="J128" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="K128" s="45">
         <f t="shared" si="0"/>
@@ -19942,7 +20015,7 @@
     </row>
     <row r="130" spans="2:24" ht="14.25" customHeight="1">
       <c r="B130" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C130" s="12">
         <f>SUM(C128)</f>
@@ -19966,23 +20039,23 @@
       </c>
       <c r="H130" s="38">
         <f>SUM(C128:H128)</f>
-        <v>1.375</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I130" s="38">
         <f>SUM(C128:I128)</f>
-        <v>1.375</v>
+        <v>2.010416666666667</v>
       </c>
       <c r="J130" s="38">
         <f>SUM(C128:J128)</f>
-        <v>1.375</v>
+        <v>3.1770833333333339</v>
       </c>
       <c r="K130" s="38">
         <f>SUM(C128:K128)</f>
-        <v>1.375</v>
+        <v>3.1770833333333339</v>
       </c>
       <c r="L130" s="38">
         <f>SUM(C128:L128)</f>
-        <v>1.375</v>
+        <v>3.1770833333333339</v>
       </c>
       <c r="M130" s="46"/>
       <c r="O130" s="38"/>
@@ -19998,7 +20071,7 @@
     </row>
     <row r="131" spans="2:24" ht="14.25" customHeight="1">
       <c r="B131" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C131" s="38">
         <f>Parameters!$G$9-C130</f>
@@ -20022,23 +20095,23 @@
       </c>
       <c r="H131" s="38">
         <f>Parameters!$G$9-H130</f>
-        <v>4.458333333333333</v>
+        <v>4.1666666666666661</v>
       </c>
       <c r="I131" s="38">
         <f>Parameters!$G$9-I130</f>
-        <v>4.458333333333333</v>
+        <v>3.8229166666666661</v>
       </c>
       <c r="J131" s="38">
         <f>Parameters!$G$9-J130</f>
-        <v>4.458333333333333</v>
+        <v>2.6562499999999991</v>
       </c>
       <c r="K131" s="38">
         <f>Parameters!$G$9-K130</f>
-        <v>4.458333333333333</v>
+        <v>2.6562499999999991</v>
       </c>
       <c r="L131" s="38">
         <f>Parameters!$G$9-L130</f>
-        <v>4.458333333333333</v>
+        <v>2.6562499999999991</v>
       </c>
       <c r="O131" s="38"/>
       <c r="P131" s="38"/>
@@ -21078,7 +21151,7 @@
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C7" s="11">
         <v>4.1666666666666664E-2</v>
@@ -21105,7 +21178,7 @@
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C8" s="14">
         <v>2.0833333333333332E-2</v>
@@ -21132,7 +21205,7 @@
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C9" s="14">
         <v>4.1666666666666664E-2</v>
@@ -21159,7 +21232,7 @@
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C10" s="14">
         <v>8.3333333333333329E-2</v>
@@ -21186,7 +21259,7 @@
     </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1">
       <c r="B11" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D11" s="14">
         <v>0.10416666666666667</v>
@@ -21216,7 +21289,7 @@
     </row>
     <row r="12" spans="1:24" ht="14.25" customHeight="1">
       <c r="B12" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D12" s="11">
         <v>0.125</v>
@@ -21242,7 +21315,7 @@
     </row>
     <row r="13" spans="1:24" ht="14.25" customHeight="1">
       <c r="B13" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
@@ -21269,7 +21342,7 @@
     </row>
     <row r="14" spans="1:24" ht="14.25" customHeight="1">
       <c r="B14" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -21296,7 +21369,7 @@
     </row>
     <row r="15" spans="1:24" ht="14.25" customHeight="1">
       <c r="B15" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="10"/>
@@ -21323,7 +21396,7 @@
     </row>
     <row r="16" spans="1:24" ht="14.25" customHeight="1">
       <c r="B16" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="14"/>
@@ -21350,7 +21423,7 @@
     </row>
     <row r="17" spans="1:24" ht="14.25" customHeight="1">
       <c r="B17" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -21379,7 +21452,7 @@
     </row>
     <row r="18" spans="1:24" ht="14.25" customHeight="1">
       <c r="B18" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="14"/>
@@ -21406,7 +21479,7 @@
     </row>
     <row r="19" spans="1:24" ht="14.25" customHeight="1">
       <c r="B19" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="1"/>
@@ -21432,7 +21505,7 @@
     </row>
     <row r="20" spans="1:24" ht="14.25" customHeight="1">
       <c r="B20" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="14"/>
@@ -21459,7 +21532,7 @@
     </row>
     <row r="21" spans="1:24" ht="14.25" customHeight="1">
       <c r="B21" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="1"/>
@@ -21486,7 +21559,7 @@
     </row>
     <row r="22" spans="1:24" ht="14.25" customHeight="1">
       <c r="B22" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -21513,7 +21586,7 @@
     </row>
     <row r="23" spans="1:24" ht="14.25" customHeight="1">
       <c r="B23" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
@@ -21540,7 +21613,7 @@
     </row>
     <row r="24" spans="1:24" ht="14.25" customHeight="1">
       <c r="B24" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -21567,7 +21640,7 @@
     </row>
     <row r="25" spans="1:24" ht="14.25" customHeight="1">
       <c r="B25" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -23965,7 +24038,7 @@
     </row>
     <row r="128" spans="2:24" ht="14.25" customHeight="1">
       <c r="B128" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C128" s="45">
         <f t="shared" ref="C128:L128" si="0">SUM(C5:C127)</f>
@@ -24034,7 +24107,7 @@
     </row>
     <row r="130" spans="2:24" ht="14.25" customHeight="1">
       <c r="B130" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C130" s="12">
         <f>SUM(C128)</f>
@@ -24090,7 +24163,7 @@
     </row>
     <row r="131" spans="2:24" ht="14.25" customHeight="1">
       <c r="B131" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C131" s="38">
         <f>Parameters!$G$9-C130</f>
@@ -28067,7 +28140,7 @@
     </row>
     <row r="128" spans="2:24" ht="14.25" customHeight="1">
       <c r="B128" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C128" s="45">
         <f t="shared" ref="C128:L128" si="0">SUM(C5:C127)</f>
@@ -28136,7 +28209,7 @@
     </row>
     <row r="130" spans="2:24" ht="14.25" customHeight="1">
       <c r="B130" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C130" s="12">
         <f>SUM(C128)</f>
@@ -28192,7 +28265,7 @@
     </row>
     <row r="131" spans="2:24" ht="14.25" customHeight="1">
       <c r="B131" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C131" s="38">
         <f>Parameters!$G$9-C130</f>
@@ -29149,47 +29222,47 @@
     <row r="1" spans="2:14" ht="14.25" customHeight="1"/>
     <row r="2" spans="2:14" ht="14.25" customHeight="1">
       <c r="B2" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="14.25" customHeight="1"/>
     <row r="4" spans="2:14" ht="14.25" customHeight="1"/>
     <row r="5" spans="2:14" ht="14.25" customHeight="1">
       <c r="C5" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K5" s="40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L5" s="40" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="14.25" customHeight="1">
@@ -29273,15 +29346,15 @@
       </c>
       <c r="H7" s="47">
         <f>SUM('Serkan Efe Durusu'!H7,'Ismail Elmasry'!H7,'can Işmar'!H7,'Marios Papalouka'!H7,'Metehan Topaç'!H7,'Celine Zanders '!H7)</f>
-        <v>1.7361111111111112E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="I7" s="47">
         <f>SUM('Serkan Efe Durusu'!I7,'Ismail Elmasry'!I7,'can Işmar'!I7,'Marios Papalouka'!I7,'Metehan Topaç'!I7,'Celine Zanders '!I7)</f>
-        <v>1.7361111111111112E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="J7" s="47">
         <f>SUM('Serkan Efe Durusu'!J7,'Ismail Elmasry'!J7,'can Işmar'!J7,'Marios Papalouka'!J7,'Metehan Topaç'!J7,'Celine Zanders '!J7)</f>
-        <v>0</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="K7" s="47">
         <f>SUM('Serkan Efe Durusu'!K7,'Ismail Elmasry'!K7,'can Işmar'!K7,'Marios Papalouka'!K7,'Metehan Topaç'!K7,'Celine Zanders '!K7)</f>
@@ -29293,7 +29366,7 @@
       </c>
       <c r="M7" s="50">
         <f t="shared" si="0"/>
-        <v>0.27777777777777773</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="N7" s="49" t="str">
         <f t="array" ref="N7">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M7/INDEX(Tasks,2,3),"")</f>
@@ -29361,7 +29434,7 @@
       </c>
       <c r="C9" s="47">
         <f>SUM('Serkan Efe Durusu'!C9,'Ismail Elmasry'!C9,'can Işmar'!C9,'Marios Papalouka'!C9,'Metehan Topaç'!C9,'Celine Zanders '!C9)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.10416666666666666</v>
       </c>
       <c r="D9" s="47">
         <f>SUM('Serkan Efe Durusu'!D9,'Ismail Elmasry'!D9,'can Işmar'!D9,'Marios Papalouka'!D9,'Metehan Topaç'!D9,'Celine Zanders '!D9)</f>
@@ -29369,7 +29442,7 @@
       </c>
       <c r="E9" s="47">
         <f>SUM('Serkan Efe Durusu'!E9,'Ismail Elmasry'!E9,'can Işmar'!E9,'Marios Papalouka'!E9,'Metehan Topaç'!E9,'Celine Zanders '!E9)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F9" s="47">
         <f>SUM('Serkan Efe Durusu'!F9,'Ismail Elmasry'!F9,'can Işmar'!F9,'Marios Papalouka'!F9,'Metehan Topaç'!F9,'Celine Zanders '!F9)</f>
@@ -29377,7 +29450,7 @@
       </c>
       <c r="G9" s="47">
         <f>SUM('Serkan Efe Durusu'!G9,'Ismail Elmasry'!G9,'can Işmar'!G9,'Marios Papalouka'!G9,'Metehan Topaç'!G9,'Celine Zanders '!G9)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="H9" s="47">
         <f>SUM('Serkan Efe Durusu'!H9,'Ismail Elmasry'!H9,'can Işmar'!H9,'Marios Papalouka'!H9,'Metehan Topaç'!H9,'Celine Zanders '!H9)</f>
@@ -29385,7 +29458,7 @@
       </c>
       <c r="I9" s="47">
         <f>SUM('Serkan Efe Durusu'!I9,'Ismail Elmasry'!I9,'can Işmar'!I9,'Marios Papalouka'!I9,'Metehan Topaç'!I9,'Celine Zanders '!I9)</f>
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J9" s="47">
         <f>SUM('Serkan Efe Durusu'!J9,'Ismail Elmasry'!J9,'can Işmar'!J9,'Marios Papalouka'!J9,'Metehan Topaç'!J9,'Celine Zanders '!J9)</f>
@@ -29401,7 +29474,7 @@
       </c>
       <c r="M9" s="50">
         <f t="shared" si="0"/>
-        <v>0.14583333333333334</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="N9" s="49" t="str">
         <f t="array" ref="N9">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M9/INDEX(Tasks,2,3),"")</f>
@@ -29435,15 +29508,15 @@
       </c>
       <c r="H10" s="47">
         <f>SUM('Serkan Efe Durusu'!H10,'Ismail Elmasry'!H10,'can Işmar'!H10,'Marios Papalouka'!H10,'Metehan Topaç'!H10,'Celine Zanders '!H10)</f>
-        <v>0.27083333333333331</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="I10" s="47">
         <f>SUM('Serkan Efe Durusu'!I10,'Ismail Elmasry'!I10,'can Işmar'!I10,'Marios Papalouka'!I10,'Metehan Topaç'!I10,'Celine Zanders '!I10)</f>
-        <v>0.27083333333333331</v>
+        <v>0.39583333333333326</v>
       </c>
       <c r="J10" s="47">
         <f>SUM('Serkan Efe Durusu'!J10,'Ismail Elmasry'!J10,'can Işmar'!J10,'Marios Papalouka'!J10,'Metehan Topaç'!J10,'Celine Zanders '!J10)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.25</v>
       </c>
       <c r="K10" s="47">
         <f>SUM('Serkan Efe Durusu'!K10,'Ismail Elmasry'!K10,'can Işmar'!K10,'Marios Papalouka'!K10,'Metehan Topaç'!K10,'Celine Zanders '!K10)</f>
@@ -29455,7 +29528,7 @@
       </c>
       <c r="M10" s="50">
         <f t="shared" si="0"/>
-        <v>3.4166666666666665</v>
+        <v>3.7916666666666661</v>
       </c>
       <c r="N10" s="49" t="str">
         <f t="array" ref="N10">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M10/INDEX(Tasks,1,3),"")</f>
@@ -29489,15 +29562,15 @@
       </c>
       <c r="H11" s="47">
         <f>SUM('Serkan Efe Durusu'!H11,'Ismail Elmasry'!H11,'can Işmar'!H11,'Marios Papalouka'!H11,'Metehan Topaç'!H11,'Celine Zanders '!H11)</f>
-        <v>0.39583333333333331</v>
+        <v>0.85416666666666674</v>
       </c>
       <c r="I11" s="47">
         <f>SUM('Serkan Efe Durusu'!I11,'Ismail Elmasry'!I11,'can Işmar'!I11,'Marios Papalouka'!I11,'Metehan Topaç'!I11,'Celine Zanders '!I11)</f>
-        <v>0.35416666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="J11" s="47">
         <f>SUM('Serkan Efe Durusu'!J11,'Ismail Elmasry'!J11,'can Işmar'!J11,'Marios Papalouka'!J11,'Metehan Topaç'!J11,'Celine Zanders '!J11)</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K11" s="47">
         <f>SUM('Serkan Efe Durusu'!K11,'Ismail Elmasry'!K11,'can Işmar'!K11,'Marios Papalouka'!K11,'Metehan Topaç'!K11,'Celine Zanders '!K11)</f>
@@ -29680,7 +29753,7 @@
     </row>
     <row r="15" spans="2:14" ht="14.25" customHeight="1">
       <c r="B15" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C15" s="47">
         <f>SUM('Serkan Efe Durusu'!C15,'Ismail Elmasry'!C15,'can Işmar'!C15,'Marios Papalouka'!C15,'Metehan Topaç'!C15,'Celine Zanders '!C15)</f>
@@ -30008,35 +30081,35 @@
       </c>
       <c r="C21" s="47">
         <f>SUM('Serkan Efe Durusu'!C21,'Ismail Elmasry'!C21,'can Işmar'!C21,'Marios Papalouka'!C21,'Metehan Topaç'!C21,'Celine Zanders '!C21)</f>
-        <v>0</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="D21" s="47">
         <f>SUM('Serkan Efe Durusu'!D21,'Ismail Elmasry'!D21,'can Işmar'!D21,'Marios Papalouka'!D21,'Metehan Topaç'!D21,'Celine Zanders '!D21)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E21" s="47">
         <f>SUM('Serkan Efe Durusu'!E21,'Ismail Elmasry'!E21,'can Işmar'!E21,'Marios Papalouka'!E21,'Metehan Topaç'!E21,'Celine Zanders '!E21)</f>
-        <v>0</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="F21" s="47">
         <f>SUM('Serkan Efe Durusu'!F21,'Ismail Elmasry'!F21,'can Işmar'!F21,'Marios Papalouka'!F21,'Metehan Topaç'!F21,'Celine Zanders '!F21)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G21" s="47">
         <f>SUM('Serkan Efe Durusu'!G21,'Ismail Elmasry'!G21,'can Işmar'!G21,'Marios Papalouka'!G21,'Metehan Topaç'!G21,'Celine Zanders '!G21)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="H21" s="47">
         <f>SUM('Serkan Efe Durusu'!H21,'Ismail Elmasry'!H21,'can Işmar'!H21,'Marios Papalouka'!H21,'Metehan Topaç'!H21,'Celine Zanders '!H21)</f>
-        <v>0</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="I21" s="47">
         <f>SUM('Serkan Efe Durusu'!I21,'Ismail Elmasry'!I21,'can Işmar'!I21,'Marios Papalouka'!I21,'Metehan Topaç'!I21,'Celine Zanders '!I21)</f>
-        <v>0.3125</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="J21" s="47">
         <f>SUM('Serkan Efe Durusu'!J21,'Ismail Elmasry'!J21,'can Işmar'!J21,'Marios Papalouka'!J21,'Metehan Topaç'!J21,'Celine Zanders '!J21)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="K21" s="47">
         <f>SUM('Serkan Efe Durusu'!K21,'Ismail Elmasry'!K21,'can Işmar'!K21,'Marios Papalouka'!K21,'Metehan Topaç'!K21,'Celine Zanders '!K21)</f>
@@ -30048,7 +30121,7 @@
       </c>
       <c r="M21" s="50">
         <f t="shared" si="0"/>
-        <v>0.3125</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="N21" s="49" t="str">
         <f t="array" ref="N21">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M21/INDEX(Tasks,2,3),"")</f>
@@ -30510,19 +30583,19 @@
       </c>
       <c r="G30" s="47">
         <f>SUM('Serkan Efe Durusu'!G30,'Ismail Elmasry'!G30,'can Işmar'!G30,'Marios Papalouka'!G30,'Metehan Topaç'!G30,'Celine Zanders '!G30)</f>
-        <v>3.125E-2</v>
+        <v>5.2083333333333329E-2</v>
       </c>
       <c r="H30" s="47">
         <f>SUM('Serkan Efe Durusu'!H30,'Ismail Elmasry'!H30,'can Işmar'!H30,'Marios Papalouka'!H30,'Metehan Topaç'!H30,'Celine Zanders '!H30)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="I30" s="47">
         <f>SUM('Serkan Efe Durusu'!I30,'Ismail Elmasry'!I30,'can Işmar'!I30,'Marios Papalouka'!I30,'Metehan Topaç'!I30,'Celine Zanders '!I30)</f>
-        <v>0</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="J30" s="47">
         <f>SUM('Serkan Efe Durusu'!J30,'Ismail Elmasry'!J30,'can Işmar'!J30,'Marios Papalouka'!J30,'Metehan Topaç'!J30,'Celine Zanders '!J30)</f>
-        <v>0</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="K30" s="47">
         <f>SUM('Serkan Efe Durusu'!K30,'Ismail Elmasry'!K30,'can Işmar'!K30,'Marios Papalouka'!K30,'Metehan Topaç'!K30,'Celine Zanders '!K30)</f>
@@ -30534,7 +30607,7 @@
       </c>
       <c r="M30" s="50">
         <f t="shared" si="0"/>
-        <v>0.21875</v>
+        <v>1.3020833333333335</v>
       </c>
       <c r="N30" s="49" t="str">
         <f t="array" ref="N30">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M30/INDEX(Tasks,1,3),"")</f>
@@ -30576,7 +30649,7 @@
       </c>
       <c r="J31" s="47">
         <f>SUM('Serkan Efe Durusu'!J31,'Ismail Elmasry'!J31,'can Işmar'!J31,'Marios Papalouka'!J31,'Metehan Topaç'!J31,'Celine Zanders '!J31)</f>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K31" s="47">
         <f>SUM('Serkan Efe Durusu'!K31,'Ismail Elmasry'!K31,'can Işmar'!K31,'Marios Papalouka'!K31,'Metehan Topaç'!K31,'Celine Zanders '!K31)</f>
@@ -30588,7 +30661,7 @@
       </c>
       <c r="M31" s="50">
         <f t="shared" si="0"/>
-        <v>0.45833333333333331</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="N31" s="49" t="str">
         <f t="array" ref="N31">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M31/INDEX(Tasks,2,3),"")</f>
@@ -30680,7 +30753,7 @@
       </c>
       <c r="I33" s="47">
         <f>SUM('Serkan Efe Durusu'!I33,'Ismail Elmasry'!I33,'can Işmar'!I33,'Marios Papalouka'!I33,'Metehan Topaç'!I33,'Celine Zanders '!I33)</f>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="J33" s="47">
         <f>SUM('Serkan Efe Durusu'!J33,'Ismail Elmasry'!J33,'can Işmar'!J33,'Marios Papalouka'!J33,'Metehan Topaç'!J33,'Celine Zanders '!J33)</f>
@@ -30696,7 +30769,7 @@
       </c>
       <c r="M33" s="50">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="N33" s="49" t="str">
         <f t="array" ref="N33">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M33/INDEX(Tasks,2,3),"")</f>
@@ -35524,37 +35597,37 @@
     </row>
     <row r="134" spans="2:13" ht="14.25" customHeight="1">
       <c r="C134" s="52" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D134" s="52" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E134" s="52" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F134" s="52" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G134" s="52" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H134" s="52" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I134" s="52" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J134" s="52" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K134" s="52" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L134" s="52" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M134" s="23" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="135" spans="2:13" ht="14.25" customHeight="1">
@@ -35588,11 +35661,11 @@
       </c>
       <c r="I135" s="43">
         <f>'Serkan Efe Durusu'!I128</f>
-        <v>0.48611111111111105</v>
+        <v>1.0277777777777777</v>
       </c>
       <c r="J135" s="43">
         <f>'Serkan Efe Durusu'!J128</f>
-        <v>0</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="K135" s="43">
         <f>'Serkan Efe Durusu'!K128</f>
@@ -35604,7 +35677,7 @@
       </c>
       <c r="M135" s="53">
         <f t="shared" ref="M135:M143" si="1">SUM(C135:L135)</f>
-        <v>2.6916666666666664</v>
+        <v>3.8236111111111106</v>
       </c>
     </row>
     <row r="136" spans="2:13" ht="14.25" customHeight="1">
@@ -35664,35 +35737,35 @@
       </c>
       <c r="C137" s="43">
         <f>'can Işmar'!C128</f>
-        <v>0.35416666666666663</v>
+        <v>0.38888888888888884</v>
       </c>
       <c r="D137" s="43">
         <f>'can Işmar'!D128</f>
-        <v>0.14583333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E137" s="43">
         <f>'can Işmar'!E128</f>
-        <v>0.20833333333333334</v>
+        <v>0.23611111111111113</v>
       </c>
       <c r="F137" s="43">
         <f>'can Işmar'!F128</f>
-        <v>0.37499999999999994</v>
+        <v>0.39583333333333326</v>
       </c>
       <c r="G137" s="43">
         <f>'can Işmar'!G128</f>
-        <v>0.33333333333333337</v>
+        <v>0.39583333333333326</v>
       </c>
       <c r="H137" s="43">
         <f>'can Işmar'!H128</f>
-        <v>6.25E-2</v>
+        <v>0.35069444444444442</v>
       </c>
       <c r="I137" s="43">
         <f>'can Işmar'!I128</f>
-        <v>0.4375</v>
+        <v>0.67013888888888884</v>
       </c>
       <c r="J137" s="43">
         <f>'can Işmar'!J128</f>
-        <v>0.60416666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="K137" s="43">
         <f>'can Işmar'!K128</f>
@@ -35704,7 +35777,7 @@
       </c>
       <c r="M137" s="53">
         <f t="shared" si="1"/>
-        <v>2.520833333333333</v>
+        <v>3.2916666666666665</v>
       </c>
     </row>
     <row r="138" spans="2:13" ht="14.25" customHeight="1">
@@ -35734,15 +35807,15 @@
       </c>
       <c r="H138" s="43">
         <f>'Marios Papalouka'!H128</f>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="I138" s="43">
         <f>'Marios Papalouka'!I128</f>
-        <v>0</v>
+        <v>0.34375</v>
       </c>
       <c r="J138" s="43">
         <f>'Marios Papalouka'!J128</f>
-        <v>0</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="K138" s="43">
         <f>'Marios Papalouka'!K128</f>
@@ -35754,7 +35827,7 @@
       </c>
       <c r="M138" s="53">
         <f t="shared" si="1"/>
-        <v>1.375</v>
+        <v>3.1770833333333339</v>
       </c>
     </row>
     <row r="139" spans="2:13" ht="14.25" customHeight="1">
@@ -35863,34 +35936,34 @@
         <v>0</v>
       </c>
       <c r="C141" s="43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D141" s="43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F141" s="43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G141" s="43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H141" s="43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I141" s="43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J141" s="43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K141" s="43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L141" s="43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M141" s="53">
         <f t="shared" si="1"/>
@@ -35903,34 +35976,34 @@
         <v>0</v>
       </c>
       <c r="C142" s="43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D142" s="43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F142" s="43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G142" s="43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H142" s="43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I142" s="43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J142" s="43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K142" s="43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L142" s="43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M142" s="53">
         <f t="shared" si="1"/>
@@ -35940,35 +36013,35 @@
     <row r="143" spans="2:13" ht="14.25" customHeight="1">
       <c r="C143" s="53">
         <f t="shared" ref="C143:L143" si="2">SUM(C135:C142)</f>
-        <v>2.021527777777778</v>
+        <v>2.0562499999999995</v>
       </c>
       <c r="D143" s="53">
         <f t="shared" si="2"/>
-        <v>1.4791666666666665</v>
+        <v>1.5</v>
       </c>
       <c r="E143" s="53">
         <f t="shared" si="2"/>
-        <v>1.4444444444444442</v>
+        <v>1.4722222222222223</v>
       </c>
       <c r="F143" s="53">
         <f t="shared" si="2"/>
-        <v>2.4375</v>
+        <v>2.4583333333333335</v>
       </c>
       <c r="G143" s="53">
         <f t="shared" si="2"/>
-        <v>2.0104166666666665</v>
+        <v>2.0729166666666665</v>
       </c>
       <c r="H143" s="53">
         <f t="shared" si="2"/>
-        <v>1.520833333333333</v>
+        <v>2.1006944444444442</v>
       </c>
       <c r="I143" s="53">
         <f t="shared" si="2"/>
-        <v>2.7777777777777777</v>
+        <v>3.895833333333333</v>
       </c>
       <c r="J143" s="53">
         <f t="shared" si="2"/>
-        <v>0.60416666666666663</v>
+        <v>2.4444444444444446</v>
       </c>
       <c r="K143" s="53">
         <f t="shared" si="2"/>
@@ -35980,7 +36053,7 @@
       </c>
       <c r="M143" s="53">
         <f t="shared" si="1"/>
-        <v>14.295833333333333</v>
+        <v>18.000694444444441</v>
       </c>
     </row>
     <row r="144" spans="2:13" ht="14.25" customHeight="1"/>

--- a/Group25 DBL Scrum Timesheets.xlsx
+++ b/Group25 DBL Scrum Timesheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/m_topac_student_tue_nl/Documents/Year 1/Q4/2IO75 - DBL Embedded Systems/GitHub Repository/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/c_i_zanders_student_tue_nl/Documents/Documents/gitkraken/Embedded_system_group25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{5DE32737-6A27-4ABA-BCA6-16E1ABDDB5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3CDDC06-63F8-4222-8E7B-8CFB24945F25}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{5DE32737-6A27-4ABA-BCA6-16E1ABDDB5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30A6EEF4-0401-430A-B134-1EAB38E02A86}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -1227,7 +1226,7 @@
                   <c:v>3.8236111111111106</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4479166666666667</c:v>
+                  <c:v>2.28125</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.2916666666666665</c:v>
@@ -1325,7 +1324,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2091029163"/>
@@ -1401,7 +1400,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="443840806"/>
@@ -1424,7 +1423,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1477,16 +1476,16 @@
                   <c:v>2.4583333333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0729166666666665</c:v>
+                  <c:v>2.1770833333333335</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1006944444444442</c:v>
+                  <c:v>2.1215277777777777</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9791666666666665</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0694444444444446</c:v>
+                  <c:v>3.7569444444444446</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1516,16 +1515,16 @@
                   <c:v>2.4583333333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0729166666666665</c:v>
+                  <c:v>2.1770833333333335</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1006944444444442</c:v>
+                  <c:v>2.1215277777777777</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9791666666666665</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0694444444444446</c:v>
+                  <c:v>3.7569444444444446</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1597,7 +1596,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1669176459"/>
@@ -1643,7 +1642,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2062,7 +2061,7 @@
                   <c:v>0.22916666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7916666666666661</c:v>
+                  <c:v>3.8749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2098,7 +2097,7 @@
                   <c:v>0.58333333333333326</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.35416666666666663</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.16666666666666666</c:v>
@@ -2153,7 +2152,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8559,7 +8558,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -9268,7 +9267,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -12739,7 +12738,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -13463,7 +13462,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -13491,7 +13490,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -13519,7 +13518,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -16909,7 +16908,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -17588,7 +17587,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -17616,7 +17615,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -17644,7 +17643,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -17728,7 +17727,7 @@
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="18" t="str">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>Sprint Task 4.5: requesting parts</v>
@@ -17754,7 +17753,7 @@
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="18" t="str">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>Belt inspection:</v>
@@ -17782,7 +17781,7 @@
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="18" t="str">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>sprint Task 4.6: Fixing the robot manipulator 3D mesh</v>
@@ -17808,7 +17807,7 @@
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="18" t="str">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>Sprint Task: testing servo</v>
@@ -19835,7 +19834,7 @@
       <c r="W122" s="38"/>
       <c r="X122" s="38"/>
     </row>
-    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B123" s="18"/>
       <c r="C123" s="44"/>
       <c r="D123" s="44"/>
@@ -19858,7 +19857,7 @@
       <c r="W123" s="38"/>
       <c r="X123" s="38"/>
     </row>
-    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B124" s="18"/>
       <c r="C124" s="44"/>
       <c r="D124" s="44"/>
@@ -19881,7 +19880,7 @@
       <c r="W124" s="38"/>
       <c r="X124" s="38"/>
     </row>
-    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B125" s="18"/>
       <c r="C125" s="44"/>
       <c r="D125" s="44"/>
@@ -19904,7 +19903,7 @@
       <c r="W125" s="38"/>
       <c r="X125" s="38"/>
     </row>
-    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B126" s="18"/>
       <c r="C126" s="44"/>
       <c r="D126" s="44"/>
@@ -19927,7 +19926,7 @@
       <c r="W126" s="38"/>
       <c r="X126" s="38"/>
     </row>
-    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B127" s="18"/>
       <c r="C127" s="44"/>
       <c r="D127" s="44"/>
@@ -19950,7 +19949,7 @@
       <c r="W127" s="38"/>
       <c r="X127" s="38"/>
     </row>
-    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="18" t="s">
         <v>194</v>
       </c>
@@ -20005,7 +20004,7 @@
       <c r="W128" s="38"/>
       <c r="X128" s="38"/>
     </row>
-    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B129" s="18"/>
       <c r="M129" s="46"/>
       <c r="O129" s="38"/>
@@ -21019,7 +21018,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -21731,7 +21730,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -21756,7 +21755,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
@@ -25121,8 +25120,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25347,7 +25346,9 @@
       <c r="I10" s="11">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="J10" s="43"/>
+      <c r="J10" s="43">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="K10" s="43"/>
       <c r="L10" s="43"/>
       <c r="O10" s="12"/>
@@ -25387,7 +25388,9 @@
       <c r="I11" s="43">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="J11" s="38"/>
+      <c r="J11" s="38">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="K11" s="43"/>
       <c r="L11" s="43"/>
       <c r="O11" s="6"/>
@@ -25671,7 +25674,9 @@
       <c r="D22" s="10"/>
       <c r="E22" s="43"/>
       <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
+      <c r="G22" s="43">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="H22" s="43"/>
       <c r="I22" s="43"/>
       <c r="J22" s="43"/>
@@ -25794,7 +25799,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -25822,7 +25827,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -25850,7 +25855,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -25888,10 +25893,18 @@
       <c r="D30" s="19"/>
       <c r="E30" s="20"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
+      <c r="G30" s="20">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H30" s="20">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="I30" s="20">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="J30" s="20">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="K30" s="19"/>
       <c r="L30" s="20"/>
       <c r="N30" s="17"/>
@@ -25920,7 +25933,9 @@
       <c r="I31" s="44">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J31" s="44"/>
+      <c r="J31" s="44">
+        <v>0.5</v>
+      </c>
       <c r="K31" s="44"/>
       <c r="L31" s="44"/>
       <c r="O31" s="38"/>
@@ -28176,19 +28191,19 @@
       </c>
       <c r="G128" s="45">
         <f t="shared" si="0"/>
-        <v>0.22916666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H128" s="45">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="I128" s="45">
         <f t="shared" si="0"/>
-        <v>0.15625</v>
+        <v>0.17708333333333331</v>
       </c>
       <c r="J128" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="K128" s="45">
         <f t="shared" si="0"/>
@@ -28245,27 +28260,27 @@
       </c>
       <c r="G130" s="38">
         <f>SUM(C128:G128)</f>
-        <v>0.95833333333333337</v>
+        <v>1.0625</v>
       </c>
       <c r="H130" s="38">
         <f>SUM(C128:H128)</f>
-        <v>1.2916666666666667</v>
+        <v>1.4166666666666665</v>
       </c>
       <c r="I130" s="38">
         <f>SUM(C128:I128)</f>
-        <v>1.4479166666666667</v>
+        <v>1.5937499999999998</v>
       </c>
       <c r="J130" s="38">
         <f>SUM(C128:J128)</f>
-        <v>1.4479166666666667</v>
+        <v>2.28125</v>
       </c>
       <c r="K130" s="38">
         <f>SUM(C128:K128)</f>
-        <v>1.4479166666666667</v>
+        <v>2.28125</v>
       </c>
       <c r="L130" s="38">
         <f>SUM(C128:L128)</f>
-        <v>1.4479166666666667</v>
+        <v>2.28125</v>
       </c>
       <c r="M130" s="46"/>
       <c r="O130" s="38"/>
@@ -28301,27 +28316,27 @@
       </c>
       <c r="G131" s="38">
         <f>Parameters!$G$9-G130</f>
-        <v>4.875</v>
+        <v>4.770833333333333</v>
       </c>
       <c r="H131" s="38">
         <f>Parameters!$G$9-H130</f>
-        <v>4.5416666666666661</v>
+        <v>4.4166666666666661</v>
       </c>
       <c r="I131" s="38">
         <f>Parameters!$G$9-I130</f>
-        <v>4.3854166666666661</v>
+        <v>4.239583333333333</v>
       </c>
       <c r="J131" s="38">
         <f>Parameters!$G$9-J130</f>
-        <v>4.3854166666666661</v>
+        <v>3.552083333333333</v>
       </c>
       <c r="K131" s="38">
         <f>Parameters!$G$9-K130</f>
-        <v>4.3854166666666661</v>
+        <v>3.552083333333333</v>
       </c>
       <c r="L131" s="38">
         <f>Parameters!$G$9-L130</f>
-        <v>4.3854166666666661</v>
+        <v>3.552083333333333</v>
       </c>
       <c r="O131" s="38"/>
       <c r="P131" s="38"/>
@@ -29532,7 +29547,7 @@
       </c>
       <c r="J10" s="47">
         <f>SUM('Serkan Efe Durusu'!J10,'Ismail Elmasry'!J10,'can Işmar'!J10,'Marios Papalouka'!J10,'Metehan Topaç'!J10,'Celine Zanders '!J10)</f>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K10" s="47">
         <f>SUM('Serkan Efe Durusu'!K10,'Ismail Elmasry'!K10,'can Işmar'!K10,'Marios Papalouka'!K10,'Metehan Topaç'!K10,'Celine Zanders '!K10)</f>
@@ -29544,7 +29559,7 @@
       </c>
       <c r="M10" s="50">
         <f t="shared" si="0"/>
-        <v>3.7916666666666661</v>
+        <v>3.8749999999999996</v>
       </c>
       <c r="N10" s="49" t="str">
         <f t="array" ref="N10">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M10/INDEX(Tasks,1,3),"")</f>
@@ -29586,7 +29601,7 @@
       </c>
       <c r="J11" s="47">
         <f>SUM('Serkan Efe Durusu'!J11,'Ismail Elmasry'!J11,'can Işmar'!J11,'Marios Papalouka'!J11,'Metehan Topaç'!J11,'Celine Zanders '!J11)</f>
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K11" s="47">
         <f>SUM('Serkan Efe Durusu'!K11,'Ismail Elmasry'!K11,'can Işmar'!K11,'Marios Papalouka'!K11,'Metehan Topaç'!K11,'Celine Zanders '!K11)</f>
@@ -30167,7 +30182,7 @@
       </c>
       <c r="G22" s="47">
         <f>SUM('Serkan Efe Durusu'!G22,'Ismail Elmasry'!G22,'can Işmar'!G22,'Marios Papalouka'!G22,'Metehan Topaç'!G22,'Celine Zanders '!G22)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="H22" s="47">
         <f>SUM('Serkan Efe Durusu'!H22,'Ismail Elmasry'!H22,'can Işmar'!H22,'Marios Papalouka'!H22,'Metehan Topaç'!H22,'Celine Zanders '!H22)</f>
@@ -30191,7 +30206,7 @@
       </c>
       <c r="M22" s="50">
         <f t="shared" si="0"/>
-        <v>0.35416666666666663</v>
+        <v>0.4375</v>
       </c>
       <c r="N22" s="49" t="str">
         <f t="array" ref="N22">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M22/INDEX(Tasks,1,3),"")</f>
@@ -30599,19 +30614,19 @@
       </c>
       <c r="G30" s="47">
         <f>SUM('Serkan Efe Durusu'!G30,'Ismail Elmasry'!G30,'can Işmar'!G30,'Marios Papalouka'!G30,'Metehan Topaç'!G30,'Celine Zanders '!G30)</f>
-        <v>5.2083333333333329E-2</v>
+        <v>7.2916666666666657E-2</v>
       </c>
       <c r="H30" s="47">
         <f>SUM('Serkan Efe Durusu'!H30,'Ismail Elmasry'!H30,'can Işmar'!H30,'Marios Papalouka'!H30,'Metehan Topaç'!H30,'Celine Zanders '!H30)</f>
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="I30" s="47">
         <f>SUM('Serkan Efe Durusu'!I30,'Ismail Elmasry'!I30,'can Işmar'!I30,'Marios Papalouka'!I30,'Metehan Topaç'!I30,'Celine Zanders '!I30)</f>
-        <v>0.52083333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="J30" s="47">
         <f>SUM('Serkan Efe Durusu'!J30,'Ismail Elmasry'!J30,'can Işmar'!J30,'Marios Papalouka'!J30,'Metehan Topaç'!J30,'Celine Zanders '!J30)</f>
-        <v>0.52083333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="K30" s="47">
         <f>SUM('Serkan Efe Durusu'!K30,'Ismail Elmasry'!K30,'can Işmar'!K30,'Marios Papalouka'!K30,'Metehan Topaç'!K30,'Celine Zanders '!K30)</f>
@@ -30623,7 +30638,7 @@
       </c>
       <c r="M30" s="50">
         <f t="shared" si="0"/>
-        <v>1.3020833333333335</v>
+        <v>1.3854166666666667</v>
       </c>
       <c r="N30" s="49" t="str">
         <f t="array" ref="N30">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M30/INDEX(Tasks,1,3),"")</f>
@@ -30665,7 +30680,7 @@
       </c>
       <c r="J31" s="47">
         <f>SUM('Serkan Efe Durusu'!J31,'Ismail Elmasry'!J31,'can Işmar'!J31,'Marios Papalouka'!J31,'Metehan Topaç'!J31,'Celine Zanders '!J31)</f>
-        <v>0.83333333333333337</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="K31" s="47">
         <f>SUM('Serkan Efe Durusu'!K31,'Ismail Elmasry'!K31,'can Işmar'!K31,'Marios Papalouka'!K31,'Metehan Topaç'!K31,'Celine Zanders '!K31)</f>
@@ -30677,7 +30692,7 @@
       </c>
       <c r="M31" s="50">
         <f t="shared" si="0"/>
-        <v>1.2916666666666667</v>
+        <v>1.7916666666666667</v>
       </c>
       <c r="N31" s="49" t="str">
         <f t="array" ref="N31">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M31/INDEX(Tasks,2,3),"")</f>
@@ -35608,7 +35623,7 @@
     <row r="130" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B133" s="25"/>
     </row>
     <row r="134" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35719,19 +35734,19 @@
       </c>
       <c r="G136" s="26">
         <f>'Celine Zanders '!G128</f>
-        <v>0.22916666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H136" s="26">
         <f>'Celine Zanders '!H128</f>
-        <v>0.33333333333333331</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="I136" s="26">
         <f>'Celine Zanders '!I128</f>
-        <v>0.15625</v>
+        <v>0.17708333333333331</v>
       </c>
       <c r="J136" s="26">
         <f>'Celine Zanders '!J128</f>
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="K136" s="26">
         <f>'Celine Zanders '!K128</f>
@@ -35743,7 +35758,7 @@
       </c>
       <c r="M136" s="53">
         <f t="shared" si="1"/>
-        <v>1.4479166666666667</v>
+        <v>2.28125</v>
       </c>
     </row>
     <row r="137" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36045,19 +36060,19 @@
       </c>
       <c r="G143" s="53">
         <f t="shared" si="2"/>
-        <v>2.0729166666666665</v>
+        <v>2.1770833333333335</v>
       </c>
       <c r="H143" s="53">
         <f t="shared" si="2"/>
-        <v>2.1006944444444442</v>
+        <v>2.1215277777777777</v>
       </c>
       <c r="I143" s="53">
         <f t="shared" si="2"/>
-        <v>3.9791666666666665</v>
+        <v>4</v>
       </c>
       <c r="J143" s="53">
         <f t="shared" si="2"/>
-        <v>3.0694444444444446</v>
+        <v>3.7569444444444446</v>
       </c>
       <c r="K143" s="53">
         <f t="shared" si="2"/>
@@ -36069,7 +36084,7 @@
       </c>
       <c r="M143" s="53">
         <f t="shared" si="1"/>
-        <v>18.709027777777777</v>
+        <v>19.542361111111113</v>
       </c>
     </row>
     <row r="144" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Group25 DBL Scrum Timesheets.xlsx
+++ b/Group25 DBL Scrum Timesheets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G\Documents\Documenten TU-Eindhoven\Year 1 - Q4\DBL C++\Github\Embedded_system_group25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/m_topac_student_tue_nl/Documents/Year 1/Q4/2IO75 - DBL Embedded Systems/GitHub Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD1B04F-B851-4CB8-B5ED-58308AB8365E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{EAD1B04F-B851-4CB8-B5ED-58308AB8365E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDCF2353-A96F-4641-A9CF-70E1AEE16B21}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="244">
   <si>
     <t>Project:</t>
   </si>
@@ -755,6 +755,30 @@
   <si>
     <t>working in innovation space on robot/ testing code/ 16-06</t>
   </si>
+  <si>
+    <t>Sprint Task 4.10: Work on the robot in innovation space (new sensors implemented)</t>
+  </si>
+  <si>
+    <t>Sprint Task 4.11: Work on the robot in innovation space (pusher + melody test with disks)</t>
+  </si>
+  <si>
+    <t>Sprint Task 4.13: Tests and debugging before the final demo</t>
+  </si>
+  <si>
+    <t>Note that hours on week 9 are estiamted hours of work since we don’t have deadline after week 8</t>
+  </si>
+  <si>
+    <t>Sprint Task 4.15: Preparing for the final demo</t>
+  </si>
+  <si>
+    <t>Sprint Task 4.16: Final demonstration on Friday</t>
+  </si>
+  <si>
+    <t>Sprint Task 4.12: Weekend meeting for finalization of mechanics</t>
+  </si>
+  <si>
+    <t>Sprint Task 4.14: Fault detection tests</t>
+  </si>
 </sst>
 </file>
 
@@ -1238,7 +1262,7 @@
                   <c:v>3.1770833333333339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.84375</c:v>
+                  <c:v>5.760416666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.6354166666666661</c:v>
@@ -1488,10 +1512,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6006944444444446</c:v>
+                  <c:v>5.3923611111111116</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1527,10 +1551,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6006944444444446</c:v>
+                  <c:v>5.3923611111111116</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2052,7 +2076,7 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.2437499999999999</c:v>
+                  <c:v>1.3270833333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.33680555555555558</c:v>
@@ -4387,8 +4411,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8562,7 +8586,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -9281,7 +9305,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -9309,7 +9333,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -9337,7 +9361,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -9433,7 +9457,7 @@
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="str">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>Sprint Task 4.5: requesting parts</v>
@@ -9461,7 +9485,7 @@
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="str">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>Belt inspection:</v>
@@ -9489,7 +9513,7 @@
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="str">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>sprint Task 4.6: Fixing the robot manipulator 3D mesh</v>
@@ -9517,7 +9541,7 @@
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="str">
         <f>INDEX(Tasks,30,2)</f>
         <v>Sprint Task: testing servo</v>
@@ -11570,7 +11594,7 @@
       <c r="W122" s="38"/>
       <c r="X122" s="38"/>
     </row>
-    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="18"/>
       <c r="C123" s="44"/>
       <c r="D123" s="44"/>
@@ -11593,7 +11617,7 @@
       <c r="W123" s="38"/>
       <c r="X123" s="38"/>
     </row>
-    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="18"/>
       <c r="C124" s="44"/>
       <c r="D124" s="44"/>
@@ -11616,7 +11640,7 @@
       <c r="W124" s="38"/>
       <c r="X124" s="38"/>
     </row>
-    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="18"/>
       <c r="C125" s="44"/>
       <c r="D125" s="44"/>
@@ -11639,7 +11663,7 @@
       <c r="W125" s="38"/>
       <c r="X125" s="38"/>
     </row>
-    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="18"/>
       <c r="C126" s="44"/>
       <c r="D126" s="44"/>
@@ -11662,7 +11686,7 @@
       <c r="W126" s="38"/>
       <c r="X126" s="38"/>
     </row>
-    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="18"/>
       <c r="C127" s="44"/>
       <c r="D127" s="44"/>
@@ -11685,7 +11709,7 @@
       <c r="W127" s="38"/>
       <c r="X127" s="38"/>
     </row>
-    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="18" t="s">
         <v>193</v>
       </c>
@@ -11740,7 +11764,7 @@
       <c r="W128" s="38"/>
       <c r="X128" s="38"/>
     </row>
-    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="18"/>
       <c r="M129" s="46"/>
       <c r="O129" s="38"/>
@@ -13478,7 +13502,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -13506,7 +13530,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -13534,7 +13558,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -13630,7 +13654,7 @@
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="str">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>Sprint Task 4.5: requesting parts</v>
@@ -13656,7 +13680,7 @@
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="str">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>Belt inspection:</v>
@@ -13682,7 +13706,7 @@
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="str">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>sprint Task 4.6: Fixing the robot manipulator 3D mesh</v>
@@ -13708,7 +13732,7 @@
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="str">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>Sprint Task: testing servo</v>
@@ -17603,7 +17627,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -17631,7 +17655,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -17659,7 +17683,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -17743,7 +17767,7 @@
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="str">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>Sprint Task 4.5: requesting parts</v>
@@ -17769,7 +17793,7 @@
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="str">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>Belt inspection:</v>
@@ -17797,7 +17821,7 @@
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="str">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>sprint Task 4.6: Fixing the robot manipulator 3D mesh</v>
@@ -17823,7 +17847,7 @@
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="str">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>Sprint Task: testing servo</v>
@@ -21034,8 +21058,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21159,7 +21183,9 @@
       <c r="J6" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="K6" s="11"/>
+      <c r="K6" s="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="L6" s="43"/>
       <c r="O6" s="12"/>
       <c r="P6" s="13"/>
@@ -21746,9 +21772,11 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="18"/>
+      <c r="B28" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
@@ -21756,8 +21784,10 @@
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="19"/>
+      <c r="J28" s="20">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K28" s="20"/>
       <c r="L28" s="19"/>
       <c r="N28" s="17"/>
       <c r="O28" s="6"/>
@@ -21771,9 +21801,11 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="18"/>
+      <c r="B29" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
@@ -21781,7 +21813,9 @@
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
+      <c r="J29" s="20">
+        <v>0.25</v>
+      </c>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
       <c r="N29" s="17"/>
@@ -21798,7 +21832,9 @@
     </row>
     <row r="30" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="17"/>
+      <c r="B30" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="20"/>
@@ -21806,7 +21842,9 @@
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
+      <c r="J30" s="20">
+        <v>0.125</v>
+      </c>
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
       <c r="N30" s="17"/>
@@ -21822,9 +21860,8 @@
       <c r="X30" s="38"/>
     </row>
     <row r="31" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="17" t="str">
-        <f t="array" ref="B31">INDEX(Tasks,26,2)</f>
-        <v xml:space="preserve">Sprint Task: building robot </v>
+      <c r="B31" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
@@ -21834,8 +21871,13 @@
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
+      <c r="K31" s="44">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="L31" s="44"/>
+      <c r="M31" t="s">
+        <v>239</v>
+      </c>
       <c r="O31" s="38"/>
       <c r="P31" s="38"/>
       <c r="Q31" s="38"/>
@@ -21847,10 +21889,9 @@
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="18" t="str">
-        <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
-        <v>Sprint Task 4.5: requesting parts</v>
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="C32" s="44"/>
       <c r="D32" s="44"/>
@@ -21860,7 +21901,9 @@
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
+      <c r="K32" s="44">
+        <v>0.125</v>
+      </c>
       <c r="L32" s="44"/>
       <c r="O32" s="38"/>
       <c r="P32" s="38"/>
@@ -21873,10 +21916,9 @@
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="18" t="str">
-        <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
-        <v>Belt inspection:</v>
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="C33" s="44"/>
       <c r="D33" s="44"/>
@@ -21886,7 +21928,9 @@
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
       <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
+      <c r="K33" s="44">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="L33" s="44"/>
       <c r="O33" s="38"/>
       <c r="P33" s="38"/>
@@ -21899,10 +21943,9 @@
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="18" t="str">
-        <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
-        <v>sprint Task 4.6: Fixing the robot manipulator 3D mesh</v>
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="C34" s="44"/>
       <c r="D34" s="44"/>
@@ -21912,7 +21955,9 @@
       <c r="H34" s="44"/>
       <c r="I34" s="44"/>
       <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
+      <c r="K34" s="44">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="L34" s="44"/>
       <c r="O34" s="38"/>
       <c r="P34" s="38"/>
@@ -21926,10 +21971,7 @@
       <c r="X34" s="38"/>
     </row>
     <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="18" t="str">
-        <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
-        <v>Sprint Task: testing servo</v>
-      </c>
+      <c r="B35" s="18"/>
       <c r="C35" s="44"/>
       <c r="D35" s="44"/>
       <c r="E35" s="44"/>
@@ -24101,11 +24143,11 @@
       </c>
       <c r="J128" s="45">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>1.4166666666666667</v>
       </c>
       <c r="K128" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="L128" s="45">
         <f t="shared" si="0"/>
@@ -24170,15 +24212,15 @@
       </c>
       <c r="J130" s="38">
         <f>SUM(C128:J128)</f>
-        <v>3.84375</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="K130" s="38">
         <f>SUM(C128:K128)</f>
-        <v>3.84375</v>
+        <v>5.760416666666667</v>
       </c>
       <c r="L130" s="38">
         <f>SUM(C128:L128)</f>
-        <v>3.84375</v>
+        <v>5.760416666666667</v>
       </c>
       <c r="M130" s="46"/>
       <c r="O130" s="38"/>
@@ -24226,15 +24268,15 @@
       </c>
       <c r="J131" s="38">
         <f>Parameters!$G$9-J130</f>
-        <v>1.989583333333333</v>
+        <v>1.1979166666666661</v>
       </c>
       <c r="K131" s="38">
         <f>Parameters!$G$9-K130</f>
-        <v>1.989583333333333</v>
+        <v>7.2916666666666075E-2</v>
       </c>
       <c r="L131" s="38">
         <f>Parameters!$G$9-L130</f>
-        <v>1.989583333333333</v>
+        <v>7.2916666666666075E-2</v>
       </c>
       <c r="O131" s="38"/>
       <c r="P131" s="38"/>
@@ -25119,7 +25161,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="A26:A30 C26:C27 B28:B29 C31:C128 D128:L128 C130">
+  <conditionalFormatting sqref="A26:A30 C26:C27 C31:C128 D128:L128 C130">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A26))&gt;0</formula>
     </cfRule>
@@ -25815,7 +25857,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -25843,7 +25885,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -25871,7 +25913,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -25965,7 +26007,7 @@
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="str">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>Sprint Task 4.5: requesting parts</v>
@@ -25991,7 +26033,7 @@
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="str">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>Belt inspection:</v>
@@ -26017,7 +26059,7 @@
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="str">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>sprint Task 4.6: Fixing the robot manipulator 3D mesh</v>
@@ -26043,7 +26085,7 @@
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="str">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>Sprint Task: testing servo</v>
@@ -29351,7 +29393,7 @@
       </c>
       <c r="K6" s="47">
         <f>SUM('Serkan Efe Durusu'!K6,'Ismail Elmasry'!K6,'can Işmar'!K6,'Marios Papalouka'!K6,'Metehan Topaç'!K6,'Celine Zanders '!K6)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="L6" s="47">
         <f>SUM('Serkan Efe Durusu'!L6,'Ismail Elmasry'!L6,'can Işmar'!L6,'Marios Papalouka'!L6,'Metehan Topaç'!L6,'Celine Zanders '!L6)</f>
@@ -29359,7 +29401,7 @@
       </c>
       <c r="M6" s="48">
         <f t="shared" ref="M6:M122" si="0">SUM(C6:L6)</f>
-        <v>1.2437499999999999</v>
+        <v>1.3270833333333332</v>
       </c>
       <c r="N6" s="49" t="str">
         <f t="array" ref="N6">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M6/INDEX(Tasks,1,3),"")</f>
@@ -30534,7 +30576,7 @@
       </c>
       <c r="J28" s="47">
         <f>SUM('Serkan Efe Durusu'!J28,'Ismail Elmasry'!J28,'can Işmar'!J28,'Marios Papalouka'!J28,'Metehan Topaç'!J28,'Celine Zanders '!J28)</f>
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="K28" s="47">
         <f>SUM('Serkan Efe Durusu'!K28,'Ismail Elmasry'!K28,'can Işmar'!K28,'Marios Papalouka'!K28,'Metehan Topaç'!K28,'Celine Zanders '!K28)</f>
@@ -30546,7 +30588,7 @@
       </c>
       <c r="M28" s="50">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="N28" s="49" t="str">
         <f t="array" ref="N28">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M28/INDEX(Tasks,1,3),"")</f>
@@ -30588,7 +30630,7 @@
       </c>
       <c r="J29" s="47">
         <f>SUM('Serkan Efe Durusu'!J29,'Ismail Elmasry'!J29,'can Işmar'!J29,'Marios Papalouka'!J29,'Metehan Topaç'!J29,'Celine Zanders '!J29)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K29" s="47">
         <f>SUM('Serkan Efe Durusu'!K29,'Ismail Elmasry'!K29,'can Işmar'!K29,'Marios Papalouka'!K29,'Metehan Topaç'!K29,'Celine Zanders '!K29)</f>
@@ -30600,7 +30642,7 @@
       </c>
       <c r="M29" s="50">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="N29" s="49" t="str">
         <f t="array" ref="N29">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M29/INDEX(Tasks,2,3),"")</f>
@@ -30642,7 +30684,7 @@
       </c>
       <c r="J30" s="47">
         <f>SUM('Serkan Efe Durusu'!J30,'Ismail Elmasry'!J30,'can Işmar'!J30,'Marios Papalouka'!J30,'Metehan Topaç'!J30,'Celine Zanders '!J30)</f>
-        <v>0.54166666666666674</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="K30" s="47">
         <f>SUM('Serkan Efe Durusu'!K30,'Ismail Elmasry'!K30,'can Işmar'!K30,'Marios Papalouka'!K30,'Metehan Topaç'!K30,'Celine Zanders '!K30)</f>
@@ -30654,7 +30696,7 @@
       </c>
       <c r="M30" s="50">
         <f t="shared" si="0"/>
-        <v>1.3854166666666667</v>
+        <v>1.5104166666666667</v>
       </c>
       <c r="N30" s="49" t="str">
         <f t="array" ref="N30">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M30/INDEX(Tasks,1,3),"")</f>
@@ -30700,7 +30742,7 @@
       </c>
       <c r="K31" s="47">
         <f>SUM('Serkan Efe Durusu'!K31,'Ismail Elmasry'!K31,'can Işmar'!K31,'Marios Papalouka'!K31,'Metehan Topaç'!K31,'Celine Zanders '!K31)</f>
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L31" s="47">
         <f>SUM('Serkan Efe Durusu'!L31,'Ismail Elmasry'!L31,'can Işmar'!L31,'Marios Papalouka'!L31,'Metehan Topaç'!L31,'Celine Zanders '!L31)</f>
@@ -30708,7 +30750,7 @@
       </c>
       <c r="M31" s="50">
         <f t="shared" si="0"/>
-        <v>2.125</v>
+        <v>2.5416666666666665</v>
       </c>
       <c r="N31" s="49" t="str">
         <f t="array" ref="N31">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M31/INDEX(Tasks,2,3),"")</f>
@@ -30754,7 +30796,7 @@
       </c>
       <c r="K32" s="47">
         <f>SUM('Serkan Efe Durusu'!K32,'Ismail Elmasry'!K32,'can Işmar'!K32,'Marios Papalouka'!K32,'Metehan Topaç'!K32,'Celine Zanders '!K32)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="L32" s="47">
         <f>SUM('Serkan Efe Durusu'!L32,'Ismail Elmasry'!L32,'can Işmar'!L32,'Marios Papalouka'!L32,'Metehan Topaç'!L32,'Celine Zanders '!L32)</f>
@@ -30762,7 +30804,7 @@
       </c>
       <c r="M32" s="50">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="N32" s="49" t="str">
         <f t="array" ref="N32">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M32/INDEX(Tasks,1,3),"")</f>
@@ -30808,7 +30850,7 @@
       </c>
       <c r="K33" s="47">
         <f>SUM('Serkan Efe Durusu'!K33,'Ismail Elmasry'!K33,'can Işmar'!K33,'Marios Papalouka'!K33,'Metehan Topaç'!K33,'Celine Zanders '!K33)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L33" s="47">
         <f>SUM('Serkan Efe Durusu'!L33,'Ismail Elmasry'!L33,'can Işmar'!L33,'Marios Papalouka'!L33,'Metehan Topaç'!L33,'Celine Zanders '!L33)</f>
@@ -30816,7 +30858,7 @@
       </c>
       <c r="M33" s="50">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="N33" s="49" t="str">
         <f t="array" ref="N33">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M33/INDEX(Tasks,2,3),"")</f>
@@ -30862,7 +30904,7 @@
       </c>
       <c r="K34" s="47">
         <f>SUM('Serkan Efe Durusu'!K34,'Ismail Elmasry'!K34,'can Işmar'!K34,'Marios Papalouka'!K34,'Metehan Topaç'!K34,'Celine Zanders '!K34)</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L34" s="47">
         <f>SUM('Serkan Efe Durusu'!L34,'Ismail Elmasry'!L34,'can Işmar'!L34,'Marios Papalouka'!L34,'Metehan Topaç'!L34,'Celine Zanders '!L34)</f>
@@ -30870,7 +30912,7 @@
       </c>
       <c r="M34" s="50">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N34" s="49" t="str">
         <f t="array" ref="N34">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M34/INDEX(Tasks,1,3),"")</f>
@@ -35639,7 +35681,7 @@
     <row r="130" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="25"/>
     </row>
     <row r="134" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35912,11 +35954,11 @@
       </c>
       <c r="J139" s="43">
         <f>'Metehan Topaç'!J128</f>
-        <v>0.625</v>
+        <v>1.4166666666666667</v>
       </c>
       <c r="K139" s="43">
         <f>'Metehan Topaç'!K128</f>
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="L139" s="43">
         <f>'Metehan Topaç'!L128</f>
@@ -35924,7 +35966,7 @@
       </c>
       <c r="M139" s="53">
         <f t="shared" si="1"/>
-        <v>3.84375</v>
+        <v>5.760416666666667</v>
       </c>
     </row>
     <row r="140" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36088,11 +36130,11 @@
       </c>
       <c r="J143" s="53">
         <f t="shared" si="2"/>
-        <v>4.6006944444444446</v>
+        <v>5.3923611111111116</v>
       </c>
       <c r="K143" s="53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="L143" s="53">
         <f t="shared" si="2"/>
@@ -36100,7 +36142,7 @@
       </c>
       <c r="M143" s="53">
         <f t="shared" si="1"/>
-        <v>20.386111111111113</v>
+        <v>22.302777777777777</v>
       </c>
     </row>
     <row r="144" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Group25 DBL Scrum Timesheets.xlsx
+++ b/Group25 DBL Scrum Timesheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/m_topac_student_tue_nl/Documents/Year 1/Q4/2IO75 - DBL Embedded Systems/GitHub Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{EAD1B04F-B851-4CB8-B5ED-58308AB8365E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDCF2353-A96F-4641-A9CF-70E1AEE16B21}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{EAD1B04F-B851-4CB8-B5ED-58308AB8365E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECD79533-5E39-4D8C-863F-731504FD22FF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -765,9 +765,6 @@
     <t>Sprint Task 4.13: Tests and debugging before the final demo</t>
   </si>
   <si>
-    <t>Note that hours on week 9 are estiamted hours of work since we don’t have deadline after week 8</t>
-  </si>
-  <si>
     <t>Sprint Task 4.15: Preparing for the final demo</t>
   </si>
   <si>
@@ -778,6 +775,9 @@
   </si>
   <si>
     <t>Sprint Task 4.14: Fault detection tests</t>
+  </si>
+  <si>
+    <t>Note that hours on week 9 are estimated hours of work since we don’t have deadline after week 8</t>
   </si>
 </sst>
 </file>
@@ -4411,7 +4411,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -11594,7 +11594,7 @@
       <c r="W122" s="38"/>
       <c r="X122" s="38"/>
     </row>
-    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B123" s="18"/>
       <c r="C123" s="44"/>
       <c r="D123" s="44"/>
@@ -11617,7 +11617,7 @@
       <c r="W123" s="38"/>
       <c r="X123" s="38"/>
     </row>
-    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B124" s="18"/>
       <c r="C124" s="44"/>
       <c r="D124" s="44"/>
@@ -11640,7 +11640,7 @@
       <c r="W124" s="38"/>
       <c r="X124" s="38"/>
     </row>
-    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B125" s="18"/>
       <c r="C125" s="44"/>
       <c r="D125" s="44"/>
@@ -11663,7 +11663,7 @@
       <c r="W125" s="38"/>
       <c r="X125" s="38"/>
     </row>
-    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B126" s="18"/>
       <c r="C126" s="44"/>
       <c r="D126" s="44"/>
@@ -11686,7 +11686,7 @@
       <c r="W126" s="38"/>
       <c r="X126" s="38"/>
     </row>
-    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B127" s="18"/>
       <c r="C127" s="44"/>
       <c r="D127" s="44"/>
@@ -11709,7 +11709,7 @@
       <c r="W127" s="38"/>
       <c r="X127" s="38"/>
     </row>
-    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="18" t="s">
         <v>193</v>
       </c>
@@ -11764,7 +11764,7 @@
       <c r="W128" s="38"/>
       <c r="X128" s="38"/>
     </row>
-    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B129" s="18"/>
       <c r="M129" s="46"/>
       <c r="O129" s="38"/>
@@ -12778,7 +12778,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -16948,8 +16948,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView topLeftCell="A28" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21058,8 +21058,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21833,7 +21833,7 @@
     <row r="30" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="L31" s="44"/>
       <c r="M31" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="O31" s="38"/>
       <c r="P31" s="38"/>
@@ -21891,7 +21891,7 @@
     </row>
     <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C32" s="44"/>
       <c r="D32" s="44"/>
@@ -21918,7 +21918,7 @@
     </row>
     <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C33" s="44"/>
       <c r="D33" s="44"/>
@@ -21945,7 +21945,7 @@
     </row>
     <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C34" s="44"/>
       <c r="D34" s="44"/>
@@ -21970,7 +21970,7 @@
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18"/>
       <c r="C35" s="44"/>
       <c r="D35" s="44"/>
@@ -23994,7 +23994,7 @@
       <c r="W122" s="38"/>
       <c r="X122" s="38"/>
     </row>
-    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="18"/>
       <c r="C123" s="44"/>
       <c r="D123" s="44"/>
@@ -24017,7 +24017,7 @@
       <c r="W123" s="38"/>
       <c r="X123" s="38"/>
     </row>
-    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="18"/>
       <c r="C124" s="44"/>
       <c r="D124" s="44"/>
@@ -24040,7 +24040,7 @@
       <c r="W124" s="38"/>
       <c r="X124" s="38"/>
     </row>
-    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="18"/>
       <c r="C125" s="44"/>
       <c r="D125" s="44"/>
@@ -24063,7 +24063,7 @@
       <c r="W125" s="38"/>
       <c r="X125" s="38"/>
     </row>
-    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="18"/>
       <c r="C126" s="44"/>
       <c r="D126" s="44"/>
@@ -24086,7 +24086,7 @@
       <c r="W126" s="38"/>
       <c r="X126" s="38"/>
     </row>
-    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="18"/>
       <c r="C127" s="44"/>
       <c r="D127" s="44"/>
@@ -24109,7 +24109,7 @@
       <c r="W127" s="38"/>
       <c r="X127" s="38"/>
     </row>
-    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="18" t="s">
         <v>193</v>
       </c>
@@ -24164,7 +24164,7 @@
       <c r="W128" s="38"/>
       <c r="X128" s="38"/>
     </row>
-    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="18"/>
       <c r="M129" s="46"/>
       <c r="O129" s="38"/>
@@ -25178,7 +25178,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
